--- a/data/time_series/plan_mkt_value_data.xlsx
+++ b/data/time_series/plan_mkt_value_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D02ABC9-65AB-4720-A531-4FA4C3FCAF2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6EDC28-3857-4BFF-B3BE-60DB2D64FED2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IBT" sheetId="1" r:id="rId1"/>
@@ -459,10 +459,1207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="B128" sqref="B1:C1048576"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="F144" sqref="F144"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>40178</v>
+      </c>
+      <c r="B2" s="4">
+        <v>830117734.39999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>40209</v>
+      </c>
+      <c r="B3" s="4">
+        <v>932517206.41999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>40237</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1064104134.0700001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>40268</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1475141834.8499999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>40298</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1622528988.0899999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>40329</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1547543516.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>40359</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1525381389.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>40390</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1706992377.8800001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>40421</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1703519080.0799999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>40451</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1774147463.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>40482</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1900647341.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>40512</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1880986063.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>40543</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1928778379.47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>40574</v>
+      </c>
+      <c r="B15" s="4">
+        <v>3118038032.5700002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>40602</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3181037518.5100002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>40633</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3181383242.4699998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>40663</v>
+      </c>
+      <c r="B18" s="4">
+        <v>3268994098.8600001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>40694</v>
+      </c>
+      <c r="B19" s="4">
+        <v>3281525082.0100002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>40724</v>
+      </c>
+      <c r="B20" s="4">
+        <v>3219718796.8299999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>40755</v>
+      </c>
+      <c r="B21" s="4">
+        <v>3245901192.1500001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>40786</v>
+      </c>
+      <c r="B22" s="4">
+        <v>3216438061.7600002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>40816</v>
+      </c>
+      <c r="B23" s="4">
+        <v>3211645130.6300001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>40847</v>
+      </c>
+      <c r="B24" s="4">
+        <v>3317215603.4000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>40877</v>
+      </c>
+      <c r="B25" s="4">
+        <v>3279790855.1700001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>40908</v>
+      </c>
+      <c r="B26" s="4">
+        <v>3308515656.8299999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>40939</v>
+      </c>
+      <c r="B27" s="4">
+        <v>3390714253.3600001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>40968</v>
+      </c>
+      <c r="B28" s="4">
+        <v>3441357193.0100002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>40999</v>
+      </c>
+      <c r="B29" s="4">
+        <v>3594273253.8800001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>41029</v>
+      </c>
+      <c r="B30" s="4">
+        <v>3620819218.9099998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>41060</v>
+      </c>
+      <c r="B31" s="4">
+        <v>3584994009.6500001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>41090</v>
+      </c>
+      <c r="B32" s="4">
+        <v>3803025610.4400001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>41121</v>
+      </c>
+      <c r="B33" s="4">
+        <v>3877728751.3899999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>41152</v>
+      </c>
+      <c r="B34" s="4">
+        <v>3892524075.6999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>41182</v>
+      </c>
+      <c r="B35" s="4">
+        <v>3915294252.8000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>41213</v>
+      </c>
+      <c r="B36" s="4">
+        <v>3910430761.8499999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>41243</v>
+      </c>
+      <c r="B37" s="4">
+        <v>3929018216.4000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>41274</v>
+      </c>
+      <c r="B38" s="4">
+        <v>3949731061.5500002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>41305</v>
+      </c>
+      <c r="B39" s="4">
+        <v>3991599105.71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>41333</v>
+      </c>
+      <c r="B40" s="4">
+        <v>4007467353.7800002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>41364</v>
+      </c>
+      <c r="B41" s="4">
+        <v>4055824611.3000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>41394</v>
+      </c>
+      <c r="B42" s="4">
+        <v>4145409199.46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>41425</v>
+      </c>
+      <c r="B43" s="4">
+        <v>4064569702.6300001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>41455</v>
+      </c>
+      <c r="B44" s="4">
+        <v>3978796970.0900002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>41486</v>
+      </c>
+      <c r="B45" s="4">
+        <v>4023056820.8600001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>41517</v>
+      </c>
+      <c r="B46" s="4">
+        <v>3966340296.0999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>41547</v>
+      </c>
+      <c r="B47" s="4">
+        <v>4033439753.48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>41578</v>
+      </c>
+      <c r="B48" s="4">
+        <v>4110020215.5500002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>41608</v>
+      </c>
+      <c r="B49" s="4">
+        <v>4104202981.7199998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>41639</v>
+      </c>
+      <c r="B50" s="4">
+        <v>4121232839.29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>41670</v>
+      </c>
+      <c r="B51" s="4">
+        <v>4116223144.4400001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>41698</v>
+      </c>
+      <c r="B52" s="4">
+        <v>4197240949.3600001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>41729</v>
+      </c>
+      <c r="B53" s="4">
+        <v>4215464347.8699999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>41759</v>
+      </c>
+      <c r="B54" s="4">
+        <v>4212492467.73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>41790</v>
+      </c>
+      <c r="B55" s="4">
+        <v>4276832512.9299998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>41820</v>
+      </c>
+      <c r="B56" s="4">
+        <v>4295140983.1099997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>41851</v>
+      </c>
+      <c r="B57" s="4">
+        <v>4265451845</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>41882</v>
+      </c>
+      <c r="B58" s="4">
+        <v>4354547211.1199999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>41912</v>
+      </c>
+      <c r="B59" s="4">
+        <v>4258151023.04</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>41943</v>
+      </c>
+      <c r="B60" s="4">
+        <v>4285163976.8000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>41973</v>
+      </c>
+      <c r="B61" s="4">
+        <v>4341696562.6499996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>42004</v>
+      </c>
+      <c r="B62" s="4">
+        <v>4986611512.0699997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>42035</v>
+      </c>
+      <c r="B63" s="4">
+        <v>5087365130.3500004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>42063</v>
+      </c>
+      <c r="B64" s="4">
+        <v>5110739057.8199997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>42094</v>
+      </c>
+      <c r="B65" s="4">
+        <v>5098528846.54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>42124</v>
+      </c>
+      <c r="B66" s="4">
+        <v>5084901351.0699997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>42155</v>
+      </c>
+      <c r="B67" s="4">
+        <v>5061385747.1499996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>42185</v>
+      </c>
+      <c r="B68" s="4">
+        <v>4948449143.5500002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>42216</v>
+      </c>
+      <c r="B69" s="4">
+        <v>4984734110.6599998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>42247</v>
+      </c>
+      <c r="B70" s="4">
+        <v>4833324327.1099997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>42277</v>
+      </c>
+      <c r="B71" s="4">
+        <v>4774352359.5100002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>42308</v>
+      </c>
+      <c r="B72" s="4">
+        <v>4880247836.6499996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>42338</v>
+      </c>
+      <c r="B73" s="4">
+        <v>4844551814.1099997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>42369</v>
+      </c>
+      <c r="B74" s="4">
+        <v>5415576742.5500002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>42400</v>
+      </c>
+      <c r="B75" s="4">
+        <v>5318083756.3500004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>42429</v>
+      </c>
+      <c r="B76" s="4">
+        <v>5338694185.8500004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B77" s="4">
+        <v>5505915040.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>42490</v>
+      </c>
+      <c r="B78" s="4">
+        <v>5538988181.4499998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>42521</v>
+      </c>
+      <c r="B79" s="4">
+        <v>5531594102.9499998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>42551</v>
+      </c>
+      <c r="B80" s="4">
+        <v>5569334217.7600002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>42582</v>
+      </c>
+      <c r="B81" s="4">
+        <v>5669685323.0900002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>42613</v>
+      </c>
+      <c r="B82" s="4">
+        <v>5658306874.6499996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>42643</v>
+      </c>
+      <c r="B83" s="4">
+        <v>6047292088.0200005</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>42674</v>
+      </c>
+      <c r="B84" s="4">
+        <v>5944249077.3100004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>42704</v>
+      </c>
+      <c r="B85" s="4">
+        <v>5857951330.0799999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>42735</v>
+      </c>
+      <c r="B86" s="4">
+        <v>6253513976.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>42766</v>
+      </c>
+      <c r="B87" s="4">
+        <v>6308462886.3400002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>42794</v>
+      </c>
+      <c r="B88" s="4">
+        <v>6400976668.1800003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>42825</v>
+      </c>
+      <c r="B89" s="4">
+        <v>7099971446.0200005</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>42855</v>
+      </c>
+      <c r="B90" s="4">
+        <v>7176134170.54</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>42886</v>
+      </c>
+      <c r="B91" s="4">
+        <v>7264954337.0500002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>42916</v>
+      </c>
+      <c r="B92" s="4">
+        <v>7282406497.0799999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>42947</v>
+      </c>
+      <c r="B93" s="4">
+        <v>7343644210.3999996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>42978</v>
+      </c>
+      <c r="B94" s="4">
+        <v>7401114464.4399996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>43008</v>
+      </c>
+      <c r="B95" s="4">
+        <v>7439354518.6199999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>43039</v>
+      </c>
+      <c r="B96" s="4">
+        <v>7501162607.2399998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>43069</v>
+      </c>
+      <c r="B97" s="4">
+        <v>7578785278.6599998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>43100</v>
+      </c>
+      <c r="B98" s="4">
+        <v>9002210135.4300003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B99" s="4">
+        <v>9202610590.7199993</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>43159</v>
+      </c>
+      <c r="B100" s="4">
+        <v>8905152042.1100006</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>43190</v>
+      </c>
+      <c r="B101" s="4">
+        <v>8894650969.9099998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>43220</v>
+      </c>
+      <c r="B102" s="4">
+        <v>8853026337.9799995</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>43251</v>
+      </c>
+      <c r="B103" s="4">
+        <v>8890561971.1299992</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>43281</v>
+      </c>
+      <c r="B104" s="4">
+        <v>8841470603.1499996</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>43312</v>
+      </c>
+      <c r="B105" s="4">
+        <v>8936073454</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>43343</v>
+      </c>
+      <c r="B106" s="4">
+        <v>8984375598.6599998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>43373</v>
+      </c>
+      <c r="B107" s="4">
+        <v>8913881251.3999996</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>43404</v>
+      </c>
+      <c r="B108" s="4">
+        <v>8522844994.3999996</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>43434</v>
+      </c>
+      <c r="B109" s="4">
+        <v>8594776142.1399994</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>43465</v>
+      </c>
+      <c r="B110" s="4">
+        <v>8430913509.8800001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>43496</v>
+      </c>
+      <c r="B111" s="4">
+        <v>8716930851.9699993</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>43524</v>
+      </c>
+      <c r="B112" s="4">
+        <v>8780002278.0200005</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>43555</v>
+      </c>
+      <c r="B113" s="4">
+        <v>8939502054.1399994</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B114" s="4">
+        <v>9008244776.2800007</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>43616</v>
+      </c>
+      <c r="B115" s="4">
+        <v>8944260855.8600006</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>43646</v>
+      </c>
+      <c r="B116" s="4">
+        <v>9215995868.9500008</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>43677</v>
+      </c>
+      <c r="B117" s="4">
+        <v>9238385070.6700001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>43708</v>
+      </c>
+      <c r="B118" s="4">
+        <v>9436337524.5699997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>43738</v>
+      </c>
+      <c r="B119" s="4">
+        <v>10602215448.620001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>43769</v>
+      </c>
+      <c r="B120" s="4">
+        <v>10608252625.24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>43799</v>
+      </c>
+      <c r="B121" s="4">
+        <v>10692316903.4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>43830</v>
+      </c>
+      <c r="B122" s="4">
+        <v>10758442213.969999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>43861</v>
+      </c>
+      <c r="B123" s="4">
+        <v>10840639312.879999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>43890</v>
+      </c>
+      <c r="B124" s="4">
+        <v>10574286223.879999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B125" s="4">
+        <v>9764305551.3600006</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B126" s="4">
+        <v>10283094677.360001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>43982</v>
+      </c>
+      <c r="B127" s="4">
+        <v>10409182664.049999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B128" s="4">
+        <v>10514205392.24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>44043</v>
+      </c>
+      <c r="B129" s="4">
+        <v>10849449410.809999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B130" s="4">
+        <v>11005151438.129999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B131" s="4">
+        <v>11506934819.120001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>44135</v>
+      </c>
+      <c r="B132" s="4">
+        <v>11238592497.879999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>44165</v>
+      </c>
+      <c r="B133" s="4">
+        <v>11941273405.450001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B134" s="4">
+        <v>12756299620.309999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>44227</v>
+      </c>
+      <c r="B135" s="4">
+        <v>12558243414.610001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>44255</v>
+      </c>
+      <c r="B136" s="4">
+        <v>12499730482.129999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B137" s="4">
+        <v>12629967215.83</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>44316</v>
+      </c>
+      <c r="B138" s="4">
+        <v>12959077328.639999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>44347</v>
+      </c>
+      <c r="B139" s="4">
+        <v>13155170030.18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B140" s="4">
+        <v>13363308598.309999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>44408</v>
+      </c>
+      <c r="B141" s="4">
+        <v>13542680564.469999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B142" s="4">
+        <v>13707767980.07</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B143" s="4">
+        <v>13203547316.24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>44500</v>
+      </c>
+      <c r="B144" s="4">
+        <v>13619689152.99</v>
+      </c>
+      <c r="C144" s="4"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>44530</v>
+      </c>
+      <c r="B145" s="4">
+        <v>13785068283.860001</v>
+      </c>
+      <c r="C145" s="4"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B146" s="4">
+        <v>13933499672.219999</v>
+      </c>
+      <c r="C146" s="4"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="4"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A142">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBA9FD4-CF43-40AB-9D8A-6D8C9591E0D3}">
+  <dimension ref="A1:B146"/>
+  <sheetViews>
+    <sheetView topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +1681,7 @@
         <v>40178</v>
       </c>
       <c r="B2" s="4">
-        <v>830117734.39999998</v>
+        <v>2133361000.52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -492,7 +1689,7 @@
         <v>40209</v>
       </c>
       <c r="B3" s="4">
-        <v>932517206.41999996</v>
+        <v>2102497497.95</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -500,7 +1697,7 @@
         <v>40237</v>
       </c>
       <c r="B4" s="4">
-        <v>1064104134.0700001</v>
+        <v>2128528078.25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -508,7 +1705,7 @@
         <v>40268</v>
       </c>
       <c r="B5" s="4">
-        <v>1475141834.8499999</v>
+        <v>2204069195.0599999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -516,7 +1713,7 @@
         <v>40298</v>
       </c>
       <c r="B6" s="4">
-        <v>1622528988.0899999</v>
+        <v>2249160289.73</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -524,7 +1721,7 @@
         <v>40329</v>
       </c>
       <c r="B7" s="4">
-        <v>1547543516.8</v>
+        <v>2151316976.4400001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -532,7 +1729,7 @@
         <v>40359</v>
       </c>
       <c r="B8" s="4">
-        <v>1525381389.55</v>
+        <v>2126807551.9400001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -540,7 +1737,7 @@
         <v>40390</v>
       </c>
       <c r="B9" s="4">
-        <v>1706992377.8800001</v>
+        <v>2217049566.9200001</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +1745,7 @@
         <v>40421</v>
       </c>
       <c r="B10" s="4">
-        <v>1703519080.0799999</v>
+        <v>2218270319.77</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -556,7 +1753,7 @@
         <v>40451</v>
       </c>
       <c r="B11" s="4">
-        <v>1774147463.24</v>
+        <v>2429501039.02</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -564,7 +1761,7 @@
         <v>40482</v>
       </c>
       <c r="B12" s="4">
-        <v>1900647341.72</v>
+        <v>2451294838.8699999</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -572,7 +1769,7 @@
         <v>40512</v>
       </c>
       <c r="B13" s="4">
-        <v>1880986063.23</v>
+        <v>2932628117.6100001</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -580,7 +1777,7 @@
         <v>40543</v>
       </c>
       <c r="B14" s="4">
-        <v>1928778379.47</v>
+        <v>3016301371.6999998</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -588,7 +1785,7 @@
         <v>40574</v>
       </c>
       <c r="B15" s="4">
-        <v>3118038032.5700002</v>
+        <v>3010941131.6700001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,7 +1793,7 @@
         <v>40602</v>
       </c>
       <c r="B16" s="4">
-        <v>3181037518.5100002</v>
+        <v>3072606771.4099998</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -604,7 +1801,7 @@
         <v>40633</v>
       </c>
       <c r="B17" s="4">
-        <v>3181383242.4699998</v>
+        <v>3077934373.48</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -612,7 +1809,7 @@
         <v>40663</v>
       </c>
       <c r="B18" s="4">
-        <v>3268994098.8600001</v>
+        <v>3168259937.3499999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -620,7 +1817,7 @@
         <v>40694</v>
       </c>
       <c r="B19" s="4">
-        <v>3281525082.0100002</v>
+        <v>3185699769.8800001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -628,7 +1825,7 @@
         <v>40724</v>
       </c>
       <c r="B20" s="4">
-        <v>3219718796.8299999</v>
+        <v>3131056633.27</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -636,7 +1833,7 @@
         <v>40755</v>
       </c>
       <c r="B21" s="4">
-        <v>3245901192.1500001</v>
+        <v>3162162793.9699998</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -644,7 +1841,7 @@
         <v>40786</v>
       </c>
       <c r="B22" s="4">
-        <v>3216438061.7600002</v>
+        <v>3139082692.54</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -652,7 +1849,7 @@
         <v>40816</v>
       </c>
       <c r="B23" s="4">
-        <v>3211645130.6300001</v>
+        <v>3200272417.1500001</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -660,7 +1857,7 @@
         <v>40847</v>
       </c>
       <c r="B24" s="4">
-        <v>3317215603.4000001</v>
+        <v>3311931768.5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -668,7 +1865,7 @@
         <v>40877</v>
       </c>
       <c r="B25" s="4">
-        <v>3279790855.1700001</v>
+        <v>3286738232.0300002</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -676,7 +1873,7 @@
         <v>40908</v>
       </c>
       <c r="B26" s="4">
-        <v>3308515656.8299999</v>
+        <v>3322199318.5999999</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -684,7 +1881,7 @@
         <v>40939</v>
       </c>
       <c r="B27" s="4">
-        <v>3390714253.3600001</v>
+        <v>3411636959.7800002</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -692,7 +1889,7 @@
         <v>40968</v>
       </c>
       <c r="B28" s="4">
-        <v>3441357193.0100002</v>
+        <v>3465240303.9000001</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -700,7 +1897,7 @@
         <v>40999</v>
       </c>
       <c r="B29" s="4">
-        <v>3594273253.8800001</v>
+        <v>3448893913.0500002</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -708,7 +1905,7 @@
         <v>41029</v>
       </c>
       <c r="B30" s="4">
-        <v>3620819218.9099998</v>
+        <v>3481026300.1199999</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -716,7 +1913,7 @@
         <v>41060</v>
       </c>
       <c r="B31" s="4">
-        <v>3584994009.6500001</v>
+        <v>3453190328.1199999</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -724,7 +1921,7 @@
         <v>41090</v>
       </c>
       <c r="B32" s="4">
-        <v>3803025610.4400001</v>
+        <v>3497243829.1300001</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -732,7 +1929,7 @@
         <v>41121</v>
       </c>
       <c r="B33" s="4">
-        <v>3877728751.3899999</v>
+        <v>3572637746.48</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -740,7 +1937,7 @@
         <v>41152</v>
       </c>
       <c r="B34" s="4">
-        <v>3892524075.6999998</v>
+        <v>3592909103.4099998</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -748,7 +1945,7 @@
         <v>41182</v>
       </c>
       <c r="B35" s="4">
-        <v>3915294252.8000002</v>
+        <v>3620604152.5799999</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -756,7 +1953,7 @@
         <v>41213</v>
       </c>
       <c r="B36" s="4">
-        <v>3910430761.8499999</v>
+        <v>3622924774.9499998</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -764,7 +1961,7 @@
         <v>41243</v>
       </c>
       <c r="B37" s="4">
-        <v>3929018216.4000001</v>
+        <v>3646999015.1599998</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -772,7 +1969,7 @@
         <v>41274</v>
       </c>
       <c r="B38" s="4">
-        <v>3949731061.5500002</v>
+        <v>3654809047.6500001</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -780,7 +1977,7 @@
         <v>41305</v>
       </c>
       <c r="B39" s="4">
-        <v>3991599105.71</v>
+        <v>4490569394.4099998</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -788,7 +1985,7 @@
         <v>41333</v>
       </c>
       <c r="B40" s="4">
-        <v>4007467353.7800002</v>
+        <v>4511270646.8800001</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -796,7 +1993,7 @@
         <v>41364</v>
       </c>
       <c r="B41" s="4">
-        <v>4055824611.3000002</v>
+        <v>4573664426.0299997</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -804,7 +2001,7 @@
         <v>41394</v>
       </c>
       <c r="B42" s="4">
-        <v>4145409199.46</v>
+        <v>4682846886.2700005</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -812,7 +2009,7 @@
         <v>41425</v>
       </c>
       <c r="B43" s="4">
-        <v>4064569702.6300001</v>
+        <v>4599347535.8999996</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -820,7 +2017,7 @@
         <v>41455</v>
       </c>
       <c r="B44" s="4">
-        <v>3978796970.0900002</v>
+        <v>4510251396.9099998</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -828,7 +2025,7 @@
         <v>41486</v>
       </c>
       <c r="B45" s="4">
-        <v>4023056820.8600001</v>
+        <v>4568724212.6999998</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -836,7 +2033,7 @@
         <v>41517</v>
       </c>
       <c r="B46" s="4">
-        <v>3966340296.0999999</v>
+        <v>4512507452.0299997</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -844,7 +2041,7 @@
         <v>41547</v>
       </c>
       <c r="B47" s="4">
-        <v>4033439753.48</v>
+        <v>4749762591.5299997</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -852,7 +2049,7 @@
         <v>41578</v>
       </c>
       <c r="B48" s="4">
-        <v>4110020215.5500002</v>
+        <v>4848589342.7200003</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -860,7 +2057,7 @@
         <v>41608</v>
       </c>
       <c r="B49" s="4">
-        <v>4104202981.7199998</v>
+        <v>4850653743.3999996</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -868,7 +2065,7 @@
         <v>41639</v>
       </c>
       <c r="B50" s="4">
-        <v>4121232839.29</v>
+        <v>4879983265.3800001</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -876,7 +2073,7 @@
         <v>41670</v>
       </c>
       <c r="B51" s="4">
-        <v>4116223144.4400001</v>
+        <v>4882894726.29</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -884,7 +2081,7 @@
         <v>41698</v>
       </c>
       <c r="B52" s="4">
-        <v>4197240949.3600001</v>
+        <v>4988729007.2700005</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -892,7 +2089,7 @@
         <v>41729</v>
       </c>
       <c r="B53" s="4">
-        <v>4215464347.8699999</v>
+        <v>5019984158.5799999</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -900,7 +2097,7 @@
         <v>41759</v>
       </c>
       <c r="B54" s="4">
-        <v>4212492467.73</v>
+        <v>5026144812.3100004</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -908,7 +2105,7 @@
         <v>41790</v>
       </c>
       <c r="B55" s="4">
-        <v>4276832512.9299998</v>
+        <v>5112975530.5600004</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -916,7 +2113,7 @@
         <v>41820</v>
       </c>
       <c r="B56" s="4">
-        <v>4295140983.1099997</v>
+        <v>5144862372.5200005</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -924,7 +2121,7 @@
         <v>41851</v>
       </c>
       <c r="B57" s="4">
-        <v>4265451845</v>
+        <v>5119794037.9899998</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -932,7 +2129,7 @@
         <v>41882</v>
       </c>
       <c r="B58" s="4">
-        <v>4354547211.1199999</v>
+        <v>5237452701.8199997</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -940,7 +2137,7 @@
         <v>41912</v>
       </c>
       <c r="B59" s="4">
-        <v>4258151023.04</v>
+        <v>5131976211.71</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -948,7 +2145,7 @@
         <v>41943</v>
       </c>
       <c r="B60" s="4">
-        <v>4285163976.8000002</v>
+        <v>5172926233.0100002</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -956,7 +2153,7 @@
         <v>41973</v>
       </c>
       <c r="B61" s="4">
-        <v>4341696562.6499996</v>
+        <v>5252461885.8400002</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -964,7 +2161,7 @@
         <v>42004</v>
       </c>
       <c r="B62" s="4">
-        <v>4986611512.0699997</v>
+        <v>5448191101.3800001</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -972,7 +2169,7 @@
         <v>42035</v>
       </c>
       <c r="B63" s="4">
-        <v>5087365130.3500004</v>
+        <v>5567918737.1199999</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -980,7 +2177,7 @@
         <v>42063</v>
       </c>
       <c r="B64" s="4">
-        <v>5110739057.8199997</v>
+        <v>5603210665.9399996</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -988,7 +2185,7 @@
         <v>42094</v>
       </c>
       <c r="B65" s="4">
-        <v>5098528846.54</v>
+        <v>5599621915.2799997</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -996,7 +2193,7 @@
         <v>42124</v>
       </c>
       <c r="B66" s="4">
-        <v>5084901351.0699997</v>
+        <v>5594550723.8299999</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1004,7 +2201,7 @@
         <v>42155</v>
       </c>
       <c r="B67" s="4">
-        <v>5061385747.1499996</v>
+        <v>5578675769.6700001</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1012,7 +2209,7 @@
         <v>42185</v>
       </c>
       <c r="B68" s="4">
-        <v>4948449143.5500002</v>
+        <v>5464086350.6700001</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1020,7 +2217,7 @@
         <v>42216</v>
       </c>
       <c r="B69" s="4">
-        <v>4984734110.6599998</v>
+        <v>5514366076.0299997</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1028,7 +2225,7 @@
         <v>42247</v>
       </c>
       <c r="B70" s="4">
-        <v>4833324327.1099997</v>
+        <v>5356648129.1499996</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1036,7 +2233,7 @@
         <v>42277</v>
       </c>
       <c r="B71" s="4">
-        <v>4774352359.5100002</v>
+        <v>5301454591.4700003</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1044,7 +2241,7 @@
         <v>42308</v>
       </c>
       <c r="B72" s="4">
-        <v>4880247836.6499996</v>
+        <v>5397632819.4899998</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1052,7 +2249,7 @@
         <v>42338</v>
       </c>
       <c r="B73" s="4">
-        <v>4844551814.1099997</v>
+        <v>5368571908.9799995</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1060,7 +2257,7 @@
         <v>42369</v>
       </c>
       <c r="B74" s="4">
-        <v>5415576742.5500002</v>
+        <v>5709868087.2700005</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1068,7 +2265,7 @@
         <v>42400</v>
       </c>
       <c r="B75" s="4">
-        <v>5318083756.3500004</v>
+        <v>5616578571.1400003</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1076,7 +2273,7 @@
         <v>42429</v>
       </c>
       <c r="B76" s="4">
-        <v>5338694185.8500004</v>
+        <v>5647936294.4499998</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1084,7 +2281,7 @@
         <v>42460</v>
       </c>
       <c r="B77" s="4">
-        <v>5505915040.5</v>
+        <v>5834802926.8000002</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1092,7 +2289,7 @@
         <v>42490</v>
       </c>
       <c r="B78" s="4">
-        <v>5538988181.4499998</v>
+        <v>5879483219.7200003</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1100,7 +2297,7 @@
         <v>42521</v>
       </c>
       <c r="B79" s="4">
-        <v>5531594102.9499998</v>
+        <v>5881279255.8699999</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1108,7 +2305,7 @@
         <v>42551</v>
       </c>
       <c r="B80" s="4">
-        <v>5569334217.7600002</v>
+        <v>5931068967.1999998</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1116,7 +2313,7 @@
         <v>42582</v>
       </c>
       <c r="B81" s="4">
-        <v>5669685323.0900002</v>
+        <v>6047546128.9399996</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1124,7 +2321,7 @@
         <v>42613</v>
       </c>
       <c r="B82" s="4">
-        <v>5658306874.6499996</v>
+        <v>6044991482.2299995</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1132,7 +2329,7 @@
         <v>42643</v>
       </c>
       <c r="B83" s="4">
-        <v>6047292088.0200005</v>
+        <v>6489780168.1700001</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1140,7 +2337,7 @@
         <v>42674</v>
       </c>
       <c r="B84" s="4">
-        <v>5944249077.3100004</v>
+        <v>6361287062.3299999</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1148,7 +2345,7 @@
         <v>42704</v>
       </c>
       <c r="B85" s="4">
-        <v>5857951330.0799999</v>
+        <v>6278318762.6800003</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1156,7 +2353,7 @@
         <v>42735</v>
       </c>
       <c r="B86" s="4">
-        <v>6253513976.5</v>
+        <v>6361809245.25</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1164,7 +2361,7 @@
         <v>42766</v>
       </c>
       <c r="B87" s="4">
-        <v>6308462886.3400002</v>
+        <v>6425317655.8999996</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1172,7 +2369,7 @@
         <v>42794</v>
       </c>
       <c r="B88" s="4">
-        <v>6400976668.1800003</v>
+        <v>6526279467.1499996</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1180,7 +2377,7 @@
         <v>42825</v>
       </c>
       <c r="B89" s="4">
-        <v>7099971446.0200005</v>
+        <v>7337629420.2799997</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1188,7 +2385,7 @@
         <v>42855</v>
       </c>
       <c r="B90" s="4">
-        <v>7176134170.54</v>
+        <v>7422733235.8900003</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1196,7 +2393,7 @@
         <v>42886</v>
       </c>
       <c r="B91" s="4">
-        <v>7264954337.0500002</v>
+        <v>7523682920.7700005</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1204,7 +2401,7 @@
         <v>42916</v>
       </c>
       <c r="B92" s="4">
-        <v>7282406497.0799999</v>
+        <v>7549356808.1800003</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1212,7 +2409,7 @@
         <v>42947</v>
       </c>
       <c r="B93" s="4">
-        <v>7343644210.3999996</v>
+        <v>7623588366.4899998</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1220,7 +2417,7 @@
         <v>42978</v>
       </c>
       <c r="B94" s="4">
-        <v>7401114464.4399996</v>
+        <v>7693916997.0799999</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1228,7 +2425,7 @@
         <v>43008</v>
       </c>
       <c r="B95" s="4">
-        <v>7439354518.6199999</v>
+        <v>7744728806.7200003</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1236,7 +2433,7 @@
         <v>43039</v>
       </c>
       <c r="B96" s="4">
-        <v>7501162607.2399998</v>
+        <v>7797612927.1400003</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1244,7 +2441,7 @@
         <v>43069</v>
       </c>
       <c r="B97" s="4">
-        <v>7578785278.6599998</v>
+        <v>7890046689.6899996</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1252,7 +2449,7 @@
         <v>43100</v>
       </c>
       <c r="B98" s="4">
-        <v>9002210135.4300003</v>
+        <v>8628245002.9599991</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1260,7 +2457,7 @@
         <v>43131</v>
       </c>
       <c r="B99" s="4">
-        <v>9202610590.7199993</v>
+        <v>8830545061.3099995</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1268,7 +2465,7 @@
         <v>43159</v>
       </c>
       <c r="B100" s="4">
-        <v>8905152042.1100006</v>
+        <v>8554843302.1199999</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1276,7 +2473,7 @@
         <v>43190</v>
       </c>
       <c r="B101" s="4">
-        <v>8894650969.9099998</v>
+        <v>8555117311.3000002</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1284,7 +2481,7 @@
         <v>43220</v>
       </c>
       <c r="B102" s="4">
-        <v>8853026337.9799995</v>
+        <v>8525561703.7799997</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1292,7 +2489,7 @@
         <v>43251</v>
       </c>
       <c r="B103" s="4">
-        <v>8890561971.1299992</v>
+        <v>8572549061.8999996</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1300,7 +2497,7 @@
         <v>43281</v>
       </c>
       <c r="B104" s="4">
-        <v>8841470603.1499996</v>
+        <v>8535731069.8900003</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1308,7 +2505,7 @@
         <v>43312</v>
       </c>
       <c r="B105" s="4">
-        <v>8936073454</v>
+        <v>8637933457.6399994</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1316,7 +2513,7 @@
         <v>43343</v>
       </c>
       <c r="B106" s="4">
-        <v>8984375598.6599998</v>
+        <v>8696018228.4200001</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1324,7 +2521,7 @@
         <v>43373</v>
       </c>
       <c r="B107" s="4">
-        <v>8913881251.3999996</v>
+        <v>8639086304.1599998</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1332,7 +2529,7 @@
         <v>43404</v>
       </c>
       <c r="B108" s="4">
-        <v>8522844994.3999996</v>
+        <v>8244001106.4200001</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1340,7 +2537,7 @@
         <v>43434</v>
       </c>
       <c r="B109" s="4">
-        <v>8594776142.1399994</v>
+        <v>8324970365.9499998</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1348,7 +2545,7 @@
         <v>43465</v>
       </c>
       <c r="B110" s="4">
-        <v>8430913509.8800001</v>
+        <v>8177279951.5699997</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1356,7 +2553,7 @@
         <v>43496</v>
       </c>
       <c r="B111" s="4">
-        <v>8716930851.9699993</v>
+        <v>8466374243.3400002</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1364,7 +2561,7 @@
         <v>43524</v>
       </c>
       <c r="B112" s="4">
-        <v>8780002278.0200005</v>
+        <v>8538970109.8500004</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1372,7 +2569,7 @@
         <v>43555</v>
       </c>
       <c r="B113" s="4">
-        <v>8939502054.1399994</v>
+        <v>8705342961.3999996</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1380,7 +2577,7 @@
         <v>43585</v>
       </c>
       <c r="B114" s="4">
-        <v>9008244776.2800007</v>
+        <v>9126959379.2399998</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1388,7 +2585,7 @@
         <v>43616</v>
       </c>
       <c r="B115" s="4">
-        <v>8944260855.8600006</v>
+        <v>9074029379.0200005</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1396,7 +2593,7 @@
         <v>43646</v>
       </c>
       <c r="B116" s="4">
-        <v>9215995868.9500008</v>
+        <v>9361706609.4699993</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1404,7 +2601,7 @@
         <v>43677</v>
       </c>
       <c r="B117" s="4">
-        <v>9238385070.6700001</v>
+        <v>9396108735.5499992</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1412,7 +2609,7 @@
         <v>43708</v>
       </c>
       <c r="B118" s="4">
-        <v>9436337524.5699997</v>
+        <v>9608738306.5599995</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1420,7 +2617,7 @@
         <v>43738</v>
       </c>
       <c r="B119" s="4">
-        <v>10602215448.620001</v>
+        <v>9614794478.7800007</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1428,7 +2625,7 @@
         <v>43769</v>
       </c>
       <c r="B120" s="4">
-        <v>10608252625.24</v>
+        <v>9625407467.9099998</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1436,7 +2633,7 @@
         <v>43799</v>
       </c>
       <c r="B121" s="4">
-        <v>10692316903.4</v>
+        <v>9713037686.1700001</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1444,7 +2641,7 @@
         <v>43830</v>
       </c>
       <c r="B122" s="4">
-        <v>10758442213.969999</v>
+        <v>9477691033.2600002</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1452,7 +2649,7 @@
         <v>43861</v>
       </c>
       <c r="B123" s="4">
-        <v>10840639312.879999</v>
+        <v>9555218261.0100002</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1460,7 +2657,7 @@
         <v>43890</v>
       </c>
       <c r="B124" s="4">
-        <v>10574286223.879999</v>
+        <v>9338936485.3999996</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1468,7 +2665,7 @@
         <v>43921</v>
       </c>
       <c r="B125" s="4">
-        <v>9764305551.3600006</v>
+        <v>8664875030.0200005</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1476,7 +2673,7 @@
         <v>43951</v>
       </c>
       <c r="B126" s="4">
-        <v>10283094677.360001</v>
+        <v>9107006952.5200005</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1484,7 +2681,7 @@
         <v>43982</v>
       </c>
       <c r="B127" s="4">
-        <v>10409182664.049999</v>
+        <v>9213245024.9799995</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1492,7 +2689,7 @@
         <v>44012</v>
       </c>
       <c r="B128" s="4">
-        <v>10514205392.24</v>
+        <v>9308097696.1700001</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1500,7 +2697,7 @@
         <v>44043</v>
       </c>
       <c r="B129" s="4">
-        <v>10849449410.809999</v>
+        <v>9606421868.5300007</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1508,7 +2705,7 @@
         <v>44074</v>
       </c>
       <c r="B130" s="4">
-        <v>11005151438.129999</v>
+        <v>9743289163.6800003</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -1516,7 +2713,7 @@
         <v>44104</v>
       </c>
       <c r="B131" s="4">
-        <v>11506934819.120001</v>
+        <v>9894562298.5499992</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -1524,7 +2721,7 @@
         <v>44135</v>
       </c>
       <c r="B132" s="4">
-        <v>11238592497.879999</v>
+        <v>9700328704.6299992</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1532,7 +2729,7 @@
         <v>44165</v>
       </c>
       <c r="B133" s="4">
-        <v>11941273405.450001</v>
+        <v>10308274207.780001</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -1540,7 +2737,7 @@
         <v>44196</v>
       </c>
       <c r="B134" s="4">
-        <v>12756299620.309999</v>
+        <v>11053433125.610001</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -1548,7 +2745,7 @@
         <v>44227</v>
       </c>
       <c r="B135" s="4">
-        <v>12558243414.610001</v>
+        <v>10900299506.57</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -1556,7 +2753,7 @@
         <v>44255</v>
       </c>
       <c r="B136" s="4">
-        <v>12499730482.129999</v>
+        <v>10872197550.370001</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -1564,7 +2761,7 @@
         <v>44286</v>
       </c>
       <c r="B137" s="4">
-        <v>12629967215.83</v>
+        <v>10999754121.32</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -1572,7 +2769,7 @@
         <v>44316</v>
       </c>
       <c r="B138" s="4">
-        <v>12959077328.639999</v>
+        <v>11290601383.860001</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -1580,7 +2777,7 @@
         <v>44347</v>
       </c>
       <c r="B139" s="4">
-        <v>13155170030.18</v>
+        <v>11478701164.889999</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -1588,7 +2785,7 @@
         <v>44377</v>
       </c>
       <c r="B140" s="4">
-        <v>13363308598.309999</v>
+        <v>11665454270.74</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -1596,7 +2793,7 @@
         <v>44408</v>
       </c>
       <c r="B141" s="4">
-        <v>13542680564.469999</v>
+        <v>11826970568.32</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -1604,7 +2801,7 @@
         <v>44439</v>
       </c>
       <c r="B142" s="4">
-        <v>13707767980.07</v>
+        <v>11980671064.48</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -1612,1173 +2809,31 @@
         <v>44469</v>
       </c>
       <c r="B143" s="4">
-        <v>13203547316.24</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A142">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBA9FD4-CF43-40AB-9D8A-6D8C9591E0D3}">
-  <dimension ref="A1:B143"/>
-  <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="B114" sqref="B1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>40178</v>
-      </c>
-      <c r="B2" s="4">
-        <v>2133361000.52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>40209</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2102497497.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>40237</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2128528078.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>40268</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2204069195.0599999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>40298</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2249160289.73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>40329</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2151316976.4400001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>40359</v>
-      </c>
-      <c r="B8" s="4">
-        <v>2126807551.9400001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>40390</v>
-      </c>
-      <c r="B9" s="4">
-        <v>2217049566.9200001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>40421</v>
-      </c>
-      <c r="B10" s="4">
-        <v>2218270319.77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>40451</v>
-      </c>
-      <c r="B11" s="4">
-        <v>2429501039.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>40482</v>
-      </c>
-      <c r="B12" s="4">
-        <v>2451294838.8699999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>40512</v>
-      </c>
-      <c r="B13" s="4">
-        <v>2932628117.6100001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>40543</v>
-      </c>
-      <c r="B14" s="4">
-        <v>3016301371.6999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>40574</v>
-      </c>
-      <c r="B15" s="4">
-        <v>3010941131.6700001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>40602</v>
-      </c>
-      <c r="B16" s="4">
-        <v>3072606771.4099998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>40633</v>
-      </c>
-      <c r="B17" s="4">
-        <v>3077934373.48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>40663</v>
-      </c>
-      <c r="B18" s="4">
-        <v>3168259937.3499999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>40694</v>
-      </c>
-      <c r="B19" s="4">
-        <v>3185699769.8800001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>40724</v>
-      </c>
-      <c r="B20" s="4">
-        <v>3131056633.27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>40755</v>
-      </c>
-      <c r="B21" s="4">
-        <v>3162162793.9699998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>40786</v>
-      </c>
-      <c r="B22" s="4">
-        <v>3139082692.54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>40816</v>
-      </c>
-      <c r="B23" s="4">
-        <v>3200272417.1500001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>40847</v>
-      </c>
-      <c r="B24" s="4">
-        <v>3311931768.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>40877</v>
-      </c>
-      <c r="B25" s="4">
-        <v>3286738232.0300002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>40908</v>
-      </c>
-      <c r="B26" s="4">
-        <v>3322199318.5999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>40939</v>
-      </c>
-      <c r="B27" s="4">
-        <v>3411636959.7800002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>40968</v>
-      </c>
-      <c r="B28" s="4">
-        <v>3465240303.9000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>40999</v>
-      </c>
-      <c r="B29" s="4">
-        <v>3448893913.0500002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>41029</v>
-      </c>
-      <c r="B30" s="4">
-        <v>3481026300.1199999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>41060</v>
-      </c>
-      <c r="B31" s="4">
-        <v>3453190328.1199999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>41090</v>
-      </c>
-      <c r="B32" s="4">
-        <v>3497243829.1300001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>41121</v>
-      </c>
-      <c r="B33" s="4">
-        <v>3572637746.48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>41152</v>
-      </c>
-      <c r="B34" s="4">
-        <v>3592909103.4099998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>41182</v>
-      </c>
-      <c r="B35" s="4">
-        <v>3620604152.5799999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>41213</v>
-      </c>
-      <c r="B36" s="4">
-        <v>3622924774.9499998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>41243</v>
-      </c>
-      <c r="B37" s="4">
-        <v>3646999015.1599998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>41274</v>
-      </c>
-      <c r="B38" s="4">
-        <v>3654809047.6500001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>41305</v>
-      </c>
-      <c r="B39" s="4">
-        <v>4490569394.4099998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>41333</v>
-      </c>
-      <c r="B40" s="4">
-        <v>4511270646.8800001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>41364</v>
-      </c>
-      <c r="B41" s="4">
-        <v>4573664426.0299997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>41394</v>
-      </c>
-      <c r="B42" s="4">
-        <v>4682846886.2700005</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>41425</v>
-      </c>
-      <c r="B43" s="4">
-        <v>4599347535.8999996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>41455</v>
-      </c>
-      <c r="B44" s="4">
-        <v>4510251396.9099998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>41486</v>
-      </c>
-      <c r="B45" s="4">
-        <v>4568724212.6999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>41517</v>
-      </c>
-      <c r="B46" s="4">
-        <v>4512507452.0299997</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>41547</v>
-      </c>
-      <c r="B47" s="4">
-        <v>4749762591.5299997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>41578</v>
-      </c>
-      <c r="B48" s="4">
-        <v>4848589342.7200003</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>41608</v>
-      </c>
-      <c r="B49" s="4">
-        <v>4850653743.3999996</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>41639</v>
-      </c>
-      <c r="B50" s="4">
-        <v>4879983265.3800001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>41670</v>
-      </c>
-      <c r="B51" s="4">
-        <v>4882894726.29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>41698</v>
-      </c>
-      <c r="B52" s="4">
-        <v>4988729007.2700005</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>41729</v>
-      </c>
-      <c r="B53" s="4">
-        <v>5019984158.5799999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>41759</v>
-      </c>
-      <c r="B54" s="4">
-        <v>5026144812.3100004</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>41790</v>
-      </c>
-      <c r="B55" s="4">
-        <v>5112975530.5600004</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>41820</v>
-      </c>
-      <c r="B56" s="4">
-        <v>5144862372.5200005</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>41851</v>
-      </c>
-      <c r="B57" s="4">
-        <v>5119794037.9899998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>41882</v>
-      </c>
-      <c r="B58" s="4">
-        <v>5237452701.8199997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>41912</v>
-      </c>
-      <c r="B59" s="4">
-        <v>5131976211.71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>41943</v>
-      </c>
-      <c r="B60" s="4">
-        <v>5172926233.0100002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>41973</v>
-      </c>
-      <c r="B61" s="4">
-        <v>5252461885.8400002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>42004</v>
-      </c>
-      <c r="B62" s="4">
-        <v>5448191101.3800001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>42035</v>
-      </c>
-      <c r="B63" s="4">
-        <v>5567918737.1199999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>42063</v>
-      </c>
-      <c r="B64" s="4">
-        <v>5603210665.9399996</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>42094</v>
-      </c>
-      <c r="B65" s="4">
-        <v>5599621915.2799997</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>42124</v>
-      </c>
-      <c r="B66" s="4">
-        <v>5594550723.8299999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>42155</v>
-      </c>
-      <c r="B67" s="4">
-        <v>5578675769.6700001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>42185</v>
-      </c>
-      <c r="B68" s="4">
-        <v>5464086350.6700001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>42216</v>
-      </c>
-      <c r="B69" s="4">
-        <v>5514366076.0299997</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>42247</v>
-      </c>
-      <c r="B70" s="4">
-        <v>5356648129.1499996</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>42277</v>
-      </c>
-      <c r="B71" s="4">
-        <v>5301454591.4700003</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>42308</v>
-      </c>
-      <c r="B72" s="4">
-        <v>5397632819.4899998</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>42338</v>
-      </c>
-      <c r="B73" s="4">
-        <v>5368571908.9799995</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>42369</v>
-      </c>
-      <c r="B74" s="4">
-        <v>5709868087.2700005</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>42400</v>
-      </c>
-      <c r="B75" s="4">
-        <v>5616578571.1400003</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>42429</v>
-      </c>
-      <c r="B76" s="4">
-        <v>5647936294.4499998</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>42460</v>
-      </c>
-      <c r="B77" s="4">
-        <v>5834802926.8000002</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>42490</v>
-      </c>
-      <c r="B78" s="4">
-        <v>5879483219.7200003</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>42521</v>
-      </c>
-      <c r="B79" s="4">
-        <v>5881279255.8699999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>42551</v>
-      </c>
-      <c r="B80" s="4">
-        <v>5931068967.1999998</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>42582</v>
-      </c>
-      <c r="B81" s="4">
-        <v>6047546128.9399996</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>42613</v>
-      </c>
-      <c r="B82" s="4">
-        <v>6044991482.2299995</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>42643</v>
-      </c>
-      <c r="B83" s="4">
-        <v>6489780168.1700001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>42674</v>
-      </c>
-      <c r="B84" s="4">
-        <v>6361287062.3299999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>42704</v>
-      </c>
-      <c r="B85" s="4">
-        <v>6278318762.6800003</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>42735</v>
-      </c>
-      <c r="B86" s="4">
-        <v>6361809245.25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>42766</v>
-      </c>
-      <c r="B87" s="4">
-        <v>6425317655.8999996</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>42794</v>
-      </c>
-      <c r="B88" s="4">
-        <v>6526279467.1499996</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>42825</v>
-      </c>
-      <c r="B89" s="4">
-        <v>7337629420.2799997</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>42855</v>
-      </c>
-      <c r="B90" s="4">
-        <v>7422733235.8900003</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>42886</v>
-      </c>
-      <c r="B91" s="4">
-        <v>7523682920.7700005</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>42916</v>
-      </c>
-      <c r="B92" s="4">
-        <v>7549356808.1800003</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>42947</v>
-      </c>
-      <c r="B93" s="4">
-        <v>7623588366.4899998</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>42978</v>
-      </c>
-      <c r="B94" s="4">
-        <v>7693916997.0799999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>43008</v>
-      </c>
-      <c r="B95" s="4">
-        <v>7744728806.7200003</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <v>43039</v>
-      </c>
-      <c r="B96" s="4">
-        <v>7797612927.1400003</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>43069</v>
-      </c>
-      <c r="B97" s="4">
-        <v>7890046689.6899996</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>43100</v>
-      </c>
-      <c r="B98" s="4">
-        <v>8628245002.9599991</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>43131</v>
-      </c>
-      <c r="B99" s="4">
-        <v>8830545061.3099995</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>43159</v>
-      </c>
-      <c r="B100" s="4">
-        <v>8554843302.1199999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <v>43190</v>
-      </c>
-      <c r="B101" s="4">
-        <v>8555117311.3000002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>43220</v>
-      </c>
-      <c r="B102" s="4">
-        <v>8525561703.7799997</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <v>43251</v>
-      </c>
-      <c r="B103" s="4">
-        <v>8572549061.8999996</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>43281</v>
-      </c>
-      <c r="B104" s="4">
-        <v>8535731069.8900003</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
-        <v>43312</v>
-      </c>
-      <c r="B105" s="4">
-        <v>8637933457.6399994</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>43343</v>
-      </c>
-      <c r="B106" s="4">
-        <v>8696018228.4200001</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>43373</v>
-      </c>
-      <c r="B107" s="4">
-        <v>8639086304.1599998</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
-        <v>43404</v>
-      </c>
-      <c r="B108" s="4">
-        <v>8244001106.4200001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <v>43434</v>
-      </c>
-      <c r="B109" s="4">
-        <v>8324970365.9499998</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
-        <v>43465</v>
-      </c>
-      <c r="B110" s="4">
-        <v>8177279951.5699997</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
-        <v>43496</v>
-      </c>
-      <c r="B111" s="4">
-        <v>8466374243.3400002</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <v>43524</v>
-      </c>
-      <c r="B112" s="4">
-        <v>8538970109.8500004</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
-        <v>43555</v>
-      </c>
-      <c r="B113" s="4">
-        <v>8705342961.3999996</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
-        <v>43585</v>
-      </c>
-      <c r="B114" s="4">
-        <v>9126959379.2399998</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <v>43616</v>
-      </c>
-      <c r="B115" s="4">
-        <v>9074029379.0200005</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
-        <v>43646</v>
-      </c>
-      <c r="B116" s="4">
-        <v>9361706609.4699993</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
-        <v>43677</v>
-      </c>
-      <c r="B117" s="4">
-        <v>9396108735.5499992</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
-        <v>43708</v>
-      </c>
-      <c r="B118" s="4">
-        <v>9608738306.5599995</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <v>43738</v>
-      </c>
-      <c r="B119" s="4">
-        <v>9614794478.7800007</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
-        <v>43769</v>
-      </c>
-      <c r="B120" s="4">
-        <v>9625407467.9099998</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
-        <v>43799</v>
-      </c>
-      <c r="B121" s="4">
-        <v>9713037686.1700001</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
-        <v>43830</v>
-      </c>
-      <c r="B122" s="4">
-        <v>9477691033.2600002</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
-        <v>43861</v>
-      </c>
-      <c r="B123" s="4">
-        <v>9555218261.0100002</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
-        <v>43890</v>
-      </c>
-      <c r="B124" s="4">
-        <v>9338936485.3999996</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
-        <v>43921</v>
-      </c>
-      <c r="B125" s="4">
-        <v>8664875030.0200005</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
-        <v>43951</v>
-      </c>
-      <c r="B126" s="4">
-        <v>9107006952.5200005</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
-        <v>43982</v>
-      </c>
-      <c r="B127" s="4">
-        <v>9213245024.9799995</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
-        <v>44012</v>
-      </c>
-      <c r="B128" s="4">
-        <v>9308097696.1700001</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
-        <v>44043</v>
-      </c>
-      <c r="B129" s="4">
-        <v>9606421868.5300007</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
-        <v>44074</v>
-      </c>
-      <c r="B130" s="4">
-        <v>9743289163.6800003</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
-        <v>44104</v>
-      </c>
-      <c r="B131" s="4">
-        <v>9894562298.5499992</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
-        <v>44135</v>
-      </c>
-      <c r="B132" s="4">
-        <v>9700328704.6299992</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
-        <v>44165</v>
-      </c>
-      <c r="B133" s="4">
-        <v>10308274207.780001</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
-        <v>44196</v>
-      </c>
-      <c r="B134" s="4">
-        <v>11053433125.610001</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
-        <v>44227</v>
-      </c>
-      <c r="B135" s="4">
-        <v>10900299506.57</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
-        <v>44255</v>
-      </c>
-      <c r="B136" s="4">
-        <v>10872197550.370001</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
-        <v>44286</v>
-      </c>
-      <c r="B137" s="4">
-        <v>10999754121.32</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
-        <v>44316</v>
-      </c>
-      <c r="B138" s="4">
-        <v>11290601383.860001</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="2">
-        <v>44347</v>
-      </c>
-      <c r="B139" s="4">
-        <v>11478701164.889999</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
-        <v>44377</v>
-      </c>
-      <c r="B140" s="4">
-        <v>11665454270.74</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
-        <v>44408</v>
-      </c>
-      <c r="B141" s="4">
-        <v>11826970568.32</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
-        <v>44439</v>
-      </c>
-      <c r="B142" s="4">
-        <v>11980671064.48</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
-        <v>44469</v>
-      </c>
-      <c r="B143" s="4">
         <v>11508277149.59</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>44500</v>
+      </c>
+      <c r="B144" s="4">
+        <v>11898653834.639999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>44530</v>
+      </c>
+      <c r="B145" s="4">
+        <v>12126631727.77</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B146" s="4">
+        <v>12222321130.280001</v>
       </c>
     </row>
   </sheetData>
@@ -2788,16 +2843,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34693692-6C77-4BB4-A99D-61623299D4F5}">
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="G142" sqref="G142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3824,7 +3879,7 @@
         <v>27604176824.200001</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>44043</v>
       </c>
@@ -3832,7 +3887,7 @@
         <v>28739709723.02</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>44074</v>
       </c>
@@ -3840,7 +3895,7 @@
         <v>28157559771.860001</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>44104</v>
       </c>
@@ -3848,7 +3903,7 @@
         <v>27927113005.669998</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>44135</v>
       </c>
@@ -3856,7 +3911,7 @@
         <v>27087051809.869999</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>44165</v>
       </c>
@@ -3864,7 +3919,7 @@
         <v>28190375144.73</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>44196</v>
       </c>
@@ -3872,7 +3927,7 @@
         <v>28978673408.57</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>44227</v>
       </c>
@@ -3880,7 +3935,7 @@
         <v>28129381368.68</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>44255</v>
       </c>
@@ -3888,7 +3943,7 @@
         <v>27127339708.720001</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>44286</v>
       </c>
@@ -3896,7 +3951,7 @@
         <v>26762917954.490002</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>44316</v>
       </c>
@@ -3904,7 +3959,7 @@
         <v>27451228205.639999</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>44347</v>
       </c>
@@ -3912,7 +3967,7 @@
         <v>27744608720.27</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>44377</v>
       </c>
@@ -3920,7 +3975,7 @@
         <v>28450323789.220001</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>44408</v>
       </c>
@@ -3928,7 +3983,7 @@
         <v>29059023657.560001</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>44439</v>
       </c>
@@ -3936,13 +3991,43 @@
         <v>29181824781.040001</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>44469</v>
       </c>
       <c r="B143" s="4">
         <v>28189152287.09</v>
       </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>44500</v>
+      </c>
+      <c r="B144" s="4">
+        <v>28782352603.84</v>
+      </c>
+      <c r="D144" s="4"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>44530</v>
+      </c>
+      <c r="B145" s="4">
+        <v>29177585592.27</v>
+      </c>
+      <c r="D145" s="4"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B146" s="4">
+        <v>29368978607.23</v>
+      </c>
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D147" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/time_series/plan_mkt_value_data.xlsx
+++ b/data/time_series/plan_mkt_value_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\time_series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Documents\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6EDC28-3857-4BFF-B3BE-60DB2D64FED2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E16FCF-086F-4DE3-A425-CEEF8E9AE040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IBT" sheetId="1" r:id="rId1"/>
@@ -465,14 +465,14 @@
       <selection activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>40178</v>
       </c>
@@ -488,7 +488,7 @@
         <v>830117734.39999998</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>40209</v>
       </c>
@@ -496,7 +496,7 @@
         <v>932517206.41999996</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>40237</v>
       </c>
@@ -504,7 +504,7 @@
         <v>1064104134.0700001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>40268</v>
       </c>
@@ -512,7 +512,7 @@
         <v>1475141834.8499999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>40298</v>
       </c>
@@ -520,7 +520,7 @@
         <v>1622528988.0899999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>40329</v>
       </c>
@@ -528,7 +528,7 @@
         <v>1547543516.8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>40359</v>
       </c>
@@ -536,7 +536,7 @@
         <v>1525381389.55</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>40390</v>
       </c>
@@ -544,7 +544,7 @@
         <v>1706992377.8800001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>40421</v>
       </c>
@@ -552,7 +552,7 @@
         <v>1703519080.0799999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>40451</v>
       </c>
@@ -560,7 +560,7 @@
         <v>1774147463.24</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>40482</v>
       </c>
@@ -568,7 +568,7 @@
         <v>1900647341.72</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>40512</v>
       </c>
@@ -576,7 +576,7 @@
         <v>1880986063.23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>40543</v>
       </c>
@@ -584,7 +584,7 @@
         <v>1928778379.47</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>40574</v>
       </c>
@@ -592,7 +592,7 @@
         <v>3118038032.5700002</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>40602</v>
       </c>
@@ -600,7 +600,7 @@
         <v>3181037518.5100002</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>40633</v>
       </c>
@@ -608,7 +608,7 @@
         <v>3181383242.4699998</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>40663</v>
       </c>
@@ -616,7 +616,7 @@
         <v>3268994098.8600001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>40694</v>
       </c>
@@ -624,7 +624,7 @@
         <v>3281525082.0100002</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>40724</v>
       </c>
@@ -632,7 +632,7 @@
         <v>3219718796.8299999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>40755</v>
       </c>
@@ -640,7 +640,7 @@
         <v>3245901192.1500001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>40786</v>
       </c>
@@ -648,7 +648,7 @@
         <v>3216438061.7600002</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>40816</v>
       </c>
@@ -656,7 +656,7 @@
         <v>3211645130.6300001</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>40847</v>
       </c>
@@ -664,7 +664,7 @@
         <v>3317215603.4000001</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>40877</v>
       </c>
@@ -672,7 +672,7 @@
         <v>3279790855.1700001</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>40908</v>
       </c>
@@ -680,7 +680,7 @@
         <v>3308515656.8299999</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>40939</v>
       </c>
@@ -688,7 +688,7 @@
         <v>3390714253.3600001</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>40968</v>
       </c>
@@ -696,7 +696,7 @@
         <v>3441357193.0100002</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>40999</v>
       </c>
@@ -704,7 +704,7 @@
         <v>3594273253.8800001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>41029</v>
       </c>
@@ -712,7 +712,7 @@
         <v>3620819218.9099998</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>41060</v>
       </c>
@@ -720,7 +720,7 @@
         <v>3584994009.6500001</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>41090</v>
       </c>
@@ -728,7 +728,7 @@
         <v>3803025610.4400001</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>41121</v>
       </c>
@@ -736,7 +736,7 @@
         <v>3877728751.3899999</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>41152</v>
       </c>
@@ -744,7 +744,7 @@
         <v>3892524075.6999998</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>41182</v>
       </c>
@@ -752,7 +752,7 @@
         <v>3915294252.8000002</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>41213</v>
       </c>
@@ -760,7 +760,7 @@
         <v>3910430761.8499999</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>41243</v>
       </c>
@@ -768,7 +768,7 @@
         <v>3929018216.4000001</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>41274</v>
       </c>
@@ -776,7 +776,7 @@
         <v>3949731061.5500002</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>41305</v>
       </c>
@@ -784,7 +784,7 @@
         <v>3991599105.71</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>41333</v>
       </c>
@@ -792,7 +792,7 @@
         <v>4007467353.7800002</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>41364</v>
       </c>
@@ -800,7 +800,7 @@
         <v>4055824611.3000002</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>41394</v>
       </c>
@@ -808,7 +808,7 @@
         <v>4145409199.46</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>41425</v>
       </c>
@@ -816,7 +816,7 @@
         <v>4064569702.6300001</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>41455</v>
       </c>
@@ -824,7 +824,7 @@
         <v>3978796970.0900002</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>41486</v>
       </c>
@@ -832,7 +832,7 @@
         <v>4023056820.8600001</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>41517</v>
       </c>
@@ -840,7 +840,7 @@
         <v>3966340296.0999999</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>41547</v>
       </c>
@@ -848,7 +848,7 @@
         <v>4033439753.48</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>41578</v>
       </c>
@@ -856,7 +856,7 @@
         <v>4110020215.5500002</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>41608</v>
       </c>
@@ -864,7 +864,7 @@
         <v>4104202981.7199998</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>41639</v>
       </c>
@@ -872,7 +872,7 @@
         <v>4121232839.29</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>41670</v>
       </c>
@@ -880,7 +880,7 @@
         <v>4116223144.4400001</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>41698</v>
       </c>
@@ -888,7 +888,7 @@
         <v>4197240949.3600001</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>41729</v>
       </c>
@@ -896,7 +896,7 @@
         <v>4215464347.8699999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>41759</v>
       </c>
@@ -904,7 +904,7 @@
         <v>4212492467.73</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>41790</v>
       </c>
@@ -912,7 +912,7 @@
         <v>4276832512.9299998</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>41820</v>
       </c>
@@ -920,7 +920,7 @@
         <v>4295140983.1099997</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>41851</v>
       </c>
@@ -928,7 +928,7 @@
         <v>4265451845</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>41882</v>
       </c>
@@ -936,7 +936,7 @@
         <v>4354547211.1199999</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>41912</v>
       </c>
@@ -944,7 +944,7 @@
         <v>4258151023.04</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>41943</v>
       </c>
@@ -952,7 +952,7 @@
         <v>4285163976.8000002</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>41973</v>
       </c>
@@ -960,7 +960,7 @@
         <v>4341696562.6499996</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>42004</v>
       </c>
@@ -968,7 +968,7 @@
         <v>4986611512.0699997</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>42035</v>
       </c>
@@ -976,7 +976,7 @@
         <v>5087365130.3500004</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>42063</v>
       </c>
@@ -984,7 +984,7 @@
         <v>5110739057.8199997</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>42094</v>
       </c>
@@ -992,7 +992,7 @@
         <v>5098528846.54</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>42124</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>5084901351.0699997</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>42155</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>5061385747.1499996</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>42185</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>4948449143.5500002</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>42216</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>4984734110.6599998</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>42247</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>4833324327.1099997</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>42277</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>4774352359.5100002</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>42308</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>4880247836.6499996</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>42338</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>4844551814.1099997</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>42369</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>5415576742.5500002</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>42400</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>5318083756.3500004</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>42429</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>5338694185.8500004</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>42460</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>5505915040.5</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>42490</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>5538988181.4499998</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>42521</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>5531594102.9499998</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>42551</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>5569334217.7600002</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>42582</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>5669685323.0900002</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>42613</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>5658306874.6499996</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>42643</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>6047292088.0200005</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>42674</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>5944249077.3100004</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>42704</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>5857951330.0799999</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>42735</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>6253513976.5</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>42766</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>6308462886.3400002</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>42794</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>6400976668.1800003</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>42825</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>7099971446.0200005</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>42855</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>7176134170.54</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>42886</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>7264954337.0500002</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>42916</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>7282406497.0799999</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>42947</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>7343644210.3999996</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>42978</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>7401114464.4399996</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>43008</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>7439354518.6199999</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>43039</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>7501162607.2399998</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>43069</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>7578785278.6599998</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>43100</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>9002210135.4300003</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>43131</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>9202610590.7199993</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>43159</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>8905152042.1100006</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>43190</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>8894650969.9099998</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>43220</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>8853026337.9799995</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>43251</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>8890561971.1299992</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>43281</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>8841470603.1499996</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>43312</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>8936073454</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>43343</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>8984375598.6599998</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>43373</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>8913881251.3999996</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>43404</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>8522844994.3999996</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>43434</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>8594776142.1399994</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>43465</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>8430913509.8800001</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>43496</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>8716930851.9699993</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>43524</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>8780002278.0200005</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>43555</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>8939502054.1399994</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>43585</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>9008244776.2800007</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>43616</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>8944260855.8600006</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>43646</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>9215995868.9500008</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>43677</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>9238385070.6700001</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>43708</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>9436337524.5699997</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>43738</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>10602215448.620001</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>43769</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>10608252625.24</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>43799</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>10692316903.4</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>43830</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>10758442213.969999</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>43861</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>10840639312.879999</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>43890</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>10574286223.879999</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>43921</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>9764305551.3600006</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>43951</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>10283094677.360001</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>43982</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>10409182664.049999</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>44012</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>10514205392.24</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>44043</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>10849449410.809999</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>44074</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>11005151438.129999</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>44104</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>11506934819.120001</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>44135</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>11238592497.879999</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>44165</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>11941273405.450001</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>44196</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>12756299620.309999</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>44227</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>12558243414.610001</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>44255</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>12499730482.129999</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>44286</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>12629967215.83</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>44316</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>12959077328.639999</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>44347</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>13155170030.18</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>44377</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>13363308598.309999</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>44408</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>13542680564.469999</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>44439</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>13707767980.07</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>44469</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>13203547316.24</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>44500</v>
       </c>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="C144" s="4"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>44530</v>
       </c>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="C145" s="4"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>44561</v>
       </c>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="C146" s="4"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C147" s="4"/>
     </row>
   </sheetData>
@@ -1662,13 +1662,13 @@
       <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>40178</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>2133361000.52</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>40209</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>2102497497.95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>40237</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>2128528078.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>40268</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>2204069195.0599999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>40298</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>2249160289.73</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>40329</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>2151316976.4400001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>40359</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>2126807551.9400001</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>40390</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>2217049566.9200001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>40421</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>2218270319.77</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>40451</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>2429501039.02</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>40482</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>2451294838.8699999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>40512</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>2932628117.6100001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>40543</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>3016301371.6999998</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>40574</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>3010941131.6700001</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>40602</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>3072606771.4099998</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>40633</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>3077934373.48</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>40663</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>3168259937.3499999</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>40694</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>3185699769.8800001</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>40724</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>3131056633.27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>40755</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>3162162793.9699998</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>40786</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>3139082692.54</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>40816</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>3200272417.1500001</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>40847</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>3311931768.5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>40877</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>3286738232.0300002</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>40908</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>3322199318.5999999</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>40939</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>3411636959.7800002</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>40968</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>3465240303.9000001</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>40999</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>3448893913.0500002</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>41029</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>3481026300.1199999</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>41060</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>3453190328.1199999</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>41090</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>3497243829.1300001</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>41121</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>3572637746.48</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>41152</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>3592909103.4099998</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>41182</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>3620604152.5799999</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>41213</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>3622924774.9499998</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>41243</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>3646999015.1599998</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>41274</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>3654809047.6500001</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>41305</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>4490569394.4099998</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>41333</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>4511270646.8800001</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>41364</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>4573664426.0299997</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>41394</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>4682846886.2700005</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>41425</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>4599347535.8999996</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>41455</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>4510251396.9099998</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>41486</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>4568724212.6999998</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>41517</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>4512507452.0299997</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>41547</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>4749762591.5299997</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>41578</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>4848589342.7200003</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>41608</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>4850653743.3999996</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>41639</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>4879983265.3800001</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>41670</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>4882894726.29</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>41698</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>4988729007.2700005</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>41729</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>5019984158.5799999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>41759</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>5026144812.3100004</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>41790</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>5112975530.5600004</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>41820</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>5144862372.5200005</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>41851</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>5119794037.9899998</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>41882</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>5237452701.8199997</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>41912</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>5131976211.71</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>41943</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>5172926233.0100002</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>41973</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>5252461885.8400002</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>42004</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>5448191101.3800001</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>42035</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>5567918737.1199999</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>42063</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>5603210665.9399996</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>42094</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>5599621915.2799997</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>42124</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>5594550723.8299999</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>42155</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>5578675769.6700001</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>42185</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>5464086350.6700001</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>42216</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>5514366076.0299997</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>42247</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>5356648129.1499996</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>42277</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>5301454591.4700003</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>42308</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>5397632819.4899998</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>42338</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>5368571908.9799995</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>42369</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>5709868087.2700005</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>42400</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>5616578571.1400003</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>42429</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>5647936294.4499998</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>42460</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>5834802926.8000002</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>42490</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>5879483219.7200003</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>42521</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>5881279255.8699999</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>42551</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>5931068967.1999998</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>42582</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>6047546128.9399996</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>42613</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>6044991482.2299995</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>42643</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>6489780168.1700001</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>42674</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>6361287062.3299999</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>42704</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>6278318762.6800003</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>42735</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>6361809245.25</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>42766</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>6425317655.8999996</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>42794</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>6526279467.1499996</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>42825</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>7337629420.2799997</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>42855</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>7422733235.8900003</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>42886</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>7523682920.7700005</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>42916</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>7549356808.1800003</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>42947</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>7623588366.4899998</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>42978</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>7693916997.0799999</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>43008</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>7744728806.7200003</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>43039</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>7797612927.1400003</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>43069</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>7890046689.6899996</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>43100</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>8628245002.9599991</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>43131</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>8830545061.3099995</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>43159</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>8554843302.1199999</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>43190</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>8555117311.3000002</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>43220</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>8525561703.7799997</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>43251</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>8572549061.8999996</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>43281</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>8535731069.8900003</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>43312</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>8637933457.6399994</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>43343</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>8696018228.4200001</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>43373</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>8639086304.1599998</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>43404</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>8244001106.4200001</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>43434</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>8324970365.9499998</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>43465</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>8177279951.5699997</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>43496</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>8466374243.3400002</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>43524</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>8538970109.8500004</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>43555</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>8705342961.3999996</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>43585</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>9126959379.2399998</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>43616</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>9074029379.0200005</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>43646</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>9361706609.4699993</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>43677</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>9396108735.5499992</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>43708</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>9608738306.5599995</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>43738</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>9614794478.7800007</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>43769</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>9625407467.9099998</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>43799</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>9713037686.1700001</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>43830</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>9477691033.2600002</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>43861</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>9555218261.0100002</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>43890</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>9338936485.3999996</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>43921</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>8664875030.0200005</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>43951</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>9107006952.5200005</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>43982</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>9213245024.9799995</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>44012</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>9308097696.1700001</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>44043</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>9606421868.5300007</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>44074</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>9743289163.6800003</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>44104</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>9894562298.5499992</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>44135</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>9700328704.6299992</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>44165</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>10308274207.780001</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>44196</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>11053433125.610001</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>44227</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>10900299506.57</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>44255</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>10872197550.370001</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>44286</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>10999754121.32</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>44316</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>11290601383.860001</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>44347</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>11478701164.889999</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>44377</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>11665454270.74</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>44408</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>11826970568.32</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>44439</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>11980671064.48</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>44469</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>11508277149.59</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>44500</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>11898653834.639999</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>44530</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>12126631727.77</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>44561</v>
       </c>
@@ -2843,19 +2843,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34693692-6C77-4BB4-A99D-61623299D4F5}">
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="G142" sqref="G142"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2863,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>40178</v>
       </c>
@@ -2871,7 +2872,7 @@
         <v>12670331040.15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>40209</v>
       </c>
@@ -2879,7 +2880,7 @@
         <v>12454714514.059999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>40237</v>
       </c>
@@ -2887,7 +2888,7 @@
         <v>12582416484.82</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>40268</v>
       </c>
@@ -2895,7 +2896,7 @@
         <v>13025662728.84</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>40298</v>
       </c>
@@ -2903,7 +2904,7 @@
         <v>13260440725.690001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>40329</v>
       </c>
@@ -2911,7 +2912,7 @@
         <v>12652381383.559999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>40359</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>12475038374.799999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>40390</v>
       </c>
@@ -2927,7 +2928,7 @@
         <v>12970168980.82</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>40421</v>
       </c>
@@ -2935,7 +2936,7 @@
         <v>12942973012.129999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>40451</v>
       </c>
@@ -2943,7 +2944,7 @@
         <v>13480205460.32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>40482</v>
       </c>
@@ -2951,7 +2952,7 @@
         <v>13443063041.030001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>40512</v>
       </c>
@@ -2959,7 +2960,7 @@
         <v>14814700195.870001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>40543</v>
       </c>
@@ -2967,7 +2968,7 @@
         <v>15090047197.559999</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>40574</v>
       </c>
@@ -2975,7 +2976,7 @@
         <v>15034722562.559999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>40602</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>15339223946.43</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>40633</v>
       </c>
@@ -2991,7 +2992,7 @@
         <v>15338075937.65</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>40663</v>
       </c>
@@ -2999,7 +3000,7 @@
         <v>15759188122.620001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>40694</v>
       </c>
@@ -3007,7 +3008,7 @@
         <v>15817399042.18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>40724</v>
       </c>
@@ -3015,7 +3016,7 @@
         <v>15518354156.139999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>40755</v>
       </c>
@@ -3023,7 +3024,7 @@
         <v>15643951036.32</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>40786</v>
       </c>
@@ -3031,7 +3032,7 @@
         <v>15501631744.309999</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>40816</v>
       </c>
@@ -3039,7 +3040,7 @@
         <v>15478669634.76</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>40847</v>
       </c>
@@ -3047,7 +3048,7 @@
         <v>15988684918.42</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>40877</v>
       </c>
@@ -3055,7 +3056,7 @@
         <v>15838131556.610001</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>40908</v>
       </c>
@@ -3063,7 +3064,7 @@
         <v>15979851739.540001</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>40939</v>
       </c>
@@ -3071,7 +3072,7 @@
         <v>16380190274.370001</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>40968</v>
       </c>
@@ -3079,7 +3080,7 @@
         <v>16632293380.49</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>40999</v>
       </c>
@@ -3087,7 +3088,7 @@
         <v>16525290668.17</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>41029</v>
       </c>
@@ -3095,7 +3096,7 @@
         <v>16649048720.639999</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>41060</v>
       </c>
@@ -3103,7 +3104,7 @@
         <v>16487003754.48</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>41090</v>
       </c>
@@ -3111,7 +3112,7 @@
         <v>16666683230.139999</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>41121</v>
       </c>
@@ -3119,7 +3120,7 @@
         <v>16994661825.91</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>41152</v>
       </c>
@@ -3127,7 +3128,7 @@
         <v>17060740670.370001</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>41182</v>
       </c>
@@ -3135,7 +3136,7 @@
         <v>17161797379.67</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>41213</v>
       </c>
@@ -3143,7 +3144,7 @@
         <v>17142269583.370001</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>41243</v>
       </c>
@@ -3151,7 +3152,7 @@
         <v>17226232669.720001</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>41274</v>
       </c>
@@ -3159,7 +3160,7 @@
         <v>17291185714.259998</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>41305</v>
       </c>
@@ -3167,7 +3168,7 @@
         <v>16688192891.540001</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>41333</v>
       </c>
@@ -3175,7 +3176,7 @@
         <v>16760318931.09</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>41364</v>
       </c>
@@ -3183,7 +3184,7 @@
         <v>16965972358.16</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>41394</v>
       </c>
@@ -3191,7 +3192,7 @@
         <v>17344551325.700001</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>41425</v>
       </c>
@@ -3199,7 +3200,7 @@
         <v>17009919681.780001</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>41455</v>
       </c>
@@ -3207,7 +3208,7 @@
         <v>16655048859.379999</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>41486</v>
       </c>
@@ -3215,7 +3216,7 @@
         <v>16844754449.469999</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>41517</v>
       </c>
@@ -3223,7 +3224,7 @@
         <v>16611704230.01</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>41547</v>
       </c>
@@ -3231,7 +3232,7 @@
         <v>16745140477.25</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>41578</v>
       </c>
@@ -3239,7 +3240,7 @@
         <v>17068600956.34</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>41608</v>
       </c>
@@ -3247,7 +3248,7 @@
         <v>17048811459.129999</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>41639</v>
       </c>
@@ -3255,7 +3256,7 @@
         <v>17124920453.700001</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>41670</v>
       </c>
@@ -3263,7 +3264,7 @@
         <v>17108427415.48</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>41698</v>
       </c>
@@ -3271,7 +3272,7 @@
         <v>17452044700.369999</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>41729</v>
       </c>
@@ -3279,7 +3280,7 @@
         <v>17534458681.869999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>41759</v>
       </c>
@@ -3287,7 +3288,7 @@
         <v>17527323843.169998</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>41790</v>
       </c>
@@ -3295,7 +3296,7 @@
         <v>17802031711.889999</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>41820</v>
       </c>
@@ -3303,7 +3304,7 @@
         <v>17885536456.360001</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>41851</v>
       </c>
@@ -3311,7 +3312,7 @@
         <v>17771447283.099998</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>41882</v>
       </c>
@@ -3319,7 +3320,7 @@
         <v>18152061725.919998</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>41912</v>
       </c>
@@ -3327,7 +3328,7 @@
         <v>17760389482.459999</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>41943</v>
       </c>
@@ -3335,7 +3336,7 @@
         <v>17913492320.950001</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>41973</v>
       </c>
@@ -3343,7 +3344,7 @@
         <v>18161633085.610001</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>42004</v>
       </c>
@@ -3351,7 +3352,7 @@
         <v>18347484059.09</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>42035</v>
       </c>
@@ -3359,7 +3360,7 @@
         <v>18722609505.799999</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>42063</v>
       </c>
@@ -3367,7 +3368,7 @@
         <v>18813632546.84</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>42094</v>
       </c>
@@ -3375,7 +3376,7 @@
         <v>18773915353.099998</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>42124</v>
       </c>
@@ -3383,7 +3384,7 @@
         <v>18729047234.330002</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>42155</v>
       </c>
@@ -3391,7 +3392,7 @@
         <v>18647811742.490002</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>42185</v>
       </c>
@@ -3399,7 +3400,7 @@
         <v>18237344817.240002</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>42216</v>
       </c>
@@ -3407,7 +3408,7 @@
         <v>18376949304.200001</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>42247</v>
       </c>
@@ -3415,7 +3416,7 @@
         <v>17823822010.27</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>42277</v>
       </c>
@@ -3423,7 +3424,7 @@
         <v>17611674082.799999</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>42308</v>
       </c>
@@ -3431,7 +3432,7 @@
         <v>18048333376.560001</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>42338</v>
       </c>
@@ -3439,7 +3440,7 @@
         <v>17923305130.990002</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>42369</v>
       </c>
@@ -3447,7 +3448,7 @@
         <v>17720678489.540001</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>42400</v>
       </c>
@@ -3455,7 +3456,7 @@
         <v>17401580107.799999</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>42429</v>
       </c>
@@ -3463,7 +3464,7 @@
         <v>17468918255.400002</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>42460</v>
       </c>
@@ -3471,7 +3472,7 @@
         <v>18015825215.720001</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>42490</v>
       </c>
@@ -3479,7 +3480,7 @@
         <v>18123427852.610001</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>42521</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>18098420744.150002</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>42551</v>
       </c>
@@ -3495,7 +3496,7 @@
         <v>18221304108.220001</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>42582</v>
       </c>
@@ -3503,7 +3504,7 @@
         <v>18547786478.41</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>42613</v>
       </c>
@@ -3511,7 +3512,7 @@
         <v>18508832479.779999</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>42643</v>
       </c>
@@ -3519,7 +3520,7 @@
         <v>18773993442.110001</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>42674</v>
       </c>
@@ -3527,7 +3528,7 @@
         <v>18430042970.950001</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>42704</v>
       </c>
@@ -3535,7 +3536,7 @@
         <v>18157757460.240002</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>42735</v>
       </c>
@@ -3543,7 +3544,7 @@
         <v>18519115493.09</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>42766</v>
       </c>
@@ -3551,7 +3552,7 @@
         <v>18672728045.689999</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>42794</v>
       </c>
@@ -3559,7 +3560,7 @@
         <v>18935552854.389999</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>42825</v>
       </c>
@@ -3567,7 +3568,7 @@
         <v>19799498475.639999</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>42855</v>
       </c>
@@ -3575,7 +3576,7 @@
         <v>20002234967.919998</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>42886</v>
       </c>
@@ -3583,7 +3584,7 @@
         <v>20236725707.75</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>42916</v>
       </c>
@@ -3591,7 +3592,7 @@
         <v>20274704112.169998</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>42947</v>
       </c>
@@ -3599,7 +3600,7 @@
         <v>20438444305.610001</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>42978</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>20590369678.540001</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>43008</v>
       </c>
@@ -3615,7 +3616,7 @@
         <v>20690747320.220001</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>43039</v>
       </c>
@@ -3623,7 +3624,7 @@
         <v>20816031800.59</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>43069</v>
       </c>
@@ -3631,7 +3632,7 @@
         <v>21026669979.09</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>43100</v>
       </c>
@@ -3639,7 +3640,7 @@
         <v>24225492187.240002</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>43131</v>
       </c>
@@ -3647,7 +3648,7 @@
         <v>24550452831.880001</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>43159</v>
       </c>
@@ -3655,7 +3656,7 @@
         <v>23751543939.110001</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>43190</v>
       </c>
@@ -3663,7 +3664,7 @@
         <v>23895593642.490002</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>43220</v>
       </c>
@@ -3671,7 +3672,7 @@
         <v>23668065334.799999</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>43251</v>
       </c>
@@ -3679,7 +3680,7 @@
         <v>23850014619.049999</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>43281</v>
       </c>
@@ -3687,7 +3688,7 @@
         <v>23743724505.990002</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>43312</v>
       </c>
@@ -3695,7 +3696,7 @@
         <v>23810476668.130001</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>43343</v>
       </c>
@@ -3703,7 +3704,7 @@
         <v>23982305364.470001</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>43373</v>
       </c>
@@ -3711,7 +3712,7 @@
         <v>23633877037.77</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>43404</v>
       </c>
@@ -3719,7 +3720,7 @@
         <v>22616086896.59</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>43434</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>22855316166.619999</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>43465</v>
       </c>
@@ -3735,7 +3736,7 @@
         <v>22914691512.650002</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>43496</v>
       </c>
@@ -3743,7 +3744,7 @@
         <v>23486649000.34</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>43524</v>
       </c>
@@ -3751,7 +3752,7 @@
         <v>23478741957.66</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>43555</v>
       </c>
@@ -3759,7 +3760,7 @@
         <v>24171159309.130001</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>43585</v>
       </c>
@@ -3767,7 +3768,7 @@
         <v>24607805892.509998</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>43616</v>
       </c>
@@ -3775,7 +3776,7 @@
         <v>25031219112.639999</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>43646</v>
       </c>
@@ -3783,7 +3784,7 @@
         <v>25624099438.360001</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>43677</v>
       </c>
@@ -3791,7 +3792,7 @@
         <v>25654690308.73</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>43708</v>
       </c>
@@ -3799,7 +3800,7 @@
         <v>27075142517.599998</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>43738</v>
       </c>
@@ -3807,7 +3808,7 @@
         <v>26732490993.099998</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>43769</v>
       </c>
@@ -3815,7 +3816,7 @@
         <v>26631956752.709999</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>43799</v>
       </c>
@@ -3823,7 +3824,7 @@
         <v>26718171624.689999</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>43830</v>
       </c>
@@ -3831,7 +3832,7 @@
         <v>25905410180.560001</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>43861</v>
       </c>
@@ -3839,7 +3840,7 @@
         <v>26801714204.060001</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>43890</v>
       </c>
@@ -3847,7 +3848,7 @@
         <v>27210513709.580002</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>43921</v>
       </c>
@@ -3855,7 +3856,7 @@
         <v>26774758277.919998</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>43951</v>
       </c>
@@ -3863,7 +3864,7 @@
         <v>27673823035.060001</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>43982</v>
       </c>
@@ -3871,7 +3872,7 @@
         <v>27458625451.310001</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>44012</v>
       </c>
@@ -3879,7 +3880,7 @@
         <v>27604176824.200001</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>44043</v>
       </c>
@@ -3887,7 +3888,7 @@
         <v>28739709723.02</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>44074</v>
       </c>
@@ -3895,7 +3896,7 @@
         <v>28157559771.860001</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>44104</v>
       </c>
@@ -3903,7 +3904,7 @@
         <v>27927113005.669998</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>44135</v>
       </c>
@@ -3911,7 +3912,7 @@
         <v>27087051809.869999</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>44165</v>
       </c>
@@ -3919,7 +3920,7 @@
         <v>28190375144.73</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>44196</v>
       </c>
@@ -3927,7 +3928,7 @@
         <v>28978673408.57</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>44227</v>
       </c>
@@ -3935,7 +3936,7 @@
         <v>28129381368.68</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>44255</v>
       </c>
@@ -3943,7 +3944,7 @@
         <v>27127339708.720001</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>44286</v>
       </c>
@@ -3951,7 +3952,7 @@
         <v>26762917954.490002</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>44316</v>
       </c>
@@ -3959,7 +3960,7 @@
         <v>27451228205.639999</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>44347</v>
       </c>
@@ -3967,7 +3968,7 @@
         <v>27744608720.27</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>44377</v>
       </c>
@@ -3975,7 +3976,7 @@
         <v>28450323789.220001</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>44408</v>
       </c>
@@ -3983,7 +3984,7 @@
         <v>29059023657.560001</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>44439</v>
       </c>
@@ -3991,7 +3992,7 @@
         <v>29181824781.040001</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>44469</v>
       </c>
@@ -3999,35 +4000,35 @@
         <v>28189152287.09</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>44500</v>
       </c>
       <c r="B144" s="4">
         <v>28782352603.84</v>
       </c>
-      <c r="D144" s="4"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C144" s="4"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>44530</v>
       </c>
       <c r="B145" s="4">
         <v>29177585592.27</v>
       </c>
-      <c r="D145" s="4"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C145" s="4"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>44561</v>
       </c>
       <c r="B146" s="4">
         <v>29368978607.23</v>
       </c>
-      <c r="D146" s="4"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D147" s="4"/>
+      <c r="C146" s="4"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C147" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/time_series/plan_mkt_value_data.xlsx
+++ b/data/time_series/plan_mkt_value_data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Documents\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E16FCF-086F-4DE3-A425-CEEF8E9AE040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB3E8A7-7240-4F2E-87A0-71D72628BABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IBT" sheetId="1" r:id="rId1"/>
     <sheet name="Pension" sheetId="2" r:id="rId2"/>
     <sheet name="Retirement" sheetId="3" r:id="rId3"/>
+    <sheet name="Total" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
   <si>
     <t>Market Value</t>
   </si>
@@ -461,7 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
@@ -1658,7 +1659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBA9FD4-CF43-40AB-9D8A-6D8C9591E0D3}">
   <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
@@ -2843,10 +2844,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34693692-6C77-4BB4-A99D-61623299D4F5}">
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4030,6 +4031,1351 @@
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C147" s="4"/>
     </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B150" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1F9BAA-C331-4130-A1A0-9E94D0489A41}">
+  <dimension ref="A1:C150"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>40178</v>
+      </c>
+      <c r="B2" s="4">
+        <f>SUM(IBT!B2,Pension!B2,Retirement!B2)</f>
+        <v>15633809775.07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>40209</v>
+      </c>
+      <c r="B3" s="4">
+        <f>SUM(IBT!B3,Pension!B3,Retirement!B3)</f>
+        <v>15489729218.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>40237</v>
+      </c>
+      <c r="B4" s="4">
+        <f>SUM(IBT!B4,Pension!B4,Retirement!B4)</f>
+        <v>15775048697.139999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>40268</v>
+      </c>
+      <c r="B5" s="4">
+        <f>SUM(IBT!B5,Pension!B5,Retirement!B5)</f>
+        <v>16704873758.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>40298</v>
+      </c>
+      <c r="B6" s="4">
+        <f>SUM(IBT!B6,Pension!B6,Retirement!B6)</f>
+        <v>17132130003.51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>40329</v>
+      </c>
+      <c r="B7" s="4">
+        <f>SUM(IBT!B7,Pension!B7,Retirement!B7)</f>
+        <v>16351241876.799999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>40359</v>
+      </c>
+      <c r="B8" s="4">
+        <f>SUM(IBT!B8,Pension!B8,Retirement!B8)</f>
+        <v>16127227316.289999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>40390</v>
+      </c>
+      <c r="B9" s="4">
+        <f>SUM(IBT!B9,Pension!B9,Retirement!B9)</f>
+        <v>16894210925.619999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>40421</v>
+      </c>
+      <c r="B10" s="4">
+        <f>SUM(IBT!B10,Pension!B10,Retirement!B10)</f>
+        <v>16864762411.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>40451</v>
+      </c>
+      <c r="B11" s="4">
+        <f>SUM(IBT!B11,Pension!B11,Retirement!B11)</f>
+        <v>17683853962.580002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>40482</v>
+      </c>
+      <c r="B12" s="4">
+        <f>SUM(IBT!B12,Pension!B12,Retirement!B12)</f>
+        <v>17795005221.620003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>40512</v>
+      </c>
+      <c r="B13" s="4">
+        <f>SUM(IBT!B13,Pension!B13,Retirement!B13)</f>
+        <v>19628314376.709999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>40543</v>
+      </c>
+      <c r="B14" s="4">
+        <f>SUM(IBT!B14,Pension!B14,Retirement!B14)</f>
+        <v>20035126948.73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>40574</v>
+      </c>
+      <c r="B15" s="4">
+        <f>SUM(IBT!B15,Pension!B15,Retirement!B15)</f>
+        <v>21163701726.799999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>40602</v>
+      </c>
+      <c r="B16" s="4">
+        <f>SUM(IBT!B16,Pension!B16,Retirement!B16)</f>
+        <v>21592868236.349998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>40633</v>
+      </c>
+      <c r="B17" s="4">
+        <f>SUM(IBT!B17,Pension!B17,Retirement!B17)</f>
+        <v>21597393553.599998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>40663</v>
+      </c>
+      <c r="B18" s="4">
+        <f>SUM(IBT!B18,Pension!B18,Retirement!B18)</f>
+        <v>22196442158.830002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>40694</v>
+      </c>
+      <c r="B19" s="4">
+        <f>SUM(IBT!B19,Pension!B19,Retirement!B19)</f>
+        <v>22284623894.07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>40724</v>
+      </c>
+      <c r="B20" s="4">
+        <f>SUM(IBT!B20,Pension!B20,Retirement!B20)</f>
+        <v>21869129586.239998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>40755</v>
+      </c>
+      <c r="B21" s="4">
+        <f>SUM(IBT!B21,Pension!B21,Retirement!B21)</f>
+        <v>22052015022.439999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>40786</v>
+      </c>
+      <c r="B22" s="4">
+        <f>SUM(IBT!B22,Pension!B22,Retirement!B22)</f>
+        <v>21857152498.610001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>40816</v>
+      </c>
+      <c r="B23" s="4">
+        <f>SUM(IBT!B23,Pension!B23,Retirement!B23)</f>
+        <v>21890587182.540001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>40847</v>
+      </c>
+      <c r="B24" s="4">
+        <f>SUM(IBT!B24,Pension!B24,Retirement!B24)</f>
+        <v>22617832290.32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>40877</v>
+      </c>
+      <c r="B25" s="4">
+        <f>SUM(IBT!B25,Pension!B25,Retirement!B25)</f>
+        <v>22404660643.810001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>40908</v>
+      </c>
+      <c r="B26" s="4">
+        <f>SUM(IBT!B26,Pension!B26,Retirement!B26)</f>
+        <v>22610566714.970001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>40939</v>
+      </c>
+      <c r="B27" s="4">
+        <f>SUM(IBT!B27,Pension!B27,Retirement!B27)</f>
+        <v>23182541487.510002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>40968</v>
+      </c>
+      <c r="B28" s="4">
+        <f>SUM(IBT!B28,Pension!B28,Retirement!B28)</f>
+        <v>23538890877.400002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>40999</v>
+      </c>
+      <c r="B29" s="4">
+        <f>SUM(IBT!B29,Pension!B29,Retirement!B29)</f>
+        <v>23568457835.099998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>41029</v>
+      </c>
+      <c r="B30" s="4">
+        <f>SUM(IBT!B30,Pension!B30,Retirement!B30)</f>
+        <v>23750894239.669998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>41060</v>
+      </c>
+      <c r="B31" s="4">
+        <f>SUM(IBT!B31,Pension!B31,Retirement!B31)</f>
+        <v>23525188092.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>41090</v>
+      </c>
+      <c r="B32" s="4">
+        <f>SUM(IBT!B32,Pension!B32,Retirement!B32)</f>
+        <v>23966952669.709999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>41121</v>
+      </c>
+      <c r="B33" s="4">
+        <f>SUM(IBT!B33,Pension!B33,Retirement!B33)</f>
+        <v>24445028323.779999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>41152</v>
+      </c>
+      <c r="B34" s="4">
+        <f>SUM(IBT!B34,Pension!B34,Retirement!B34)</f>
+        <v>24546173849.48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>41182</v>
+      </c>
+      <c r="B35" s="4">
+        <f>SUM(IBT!B35,Pension!B35,Retirement!B35)</f>
+        <v>24697695785.049999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>41213</v>
+      </c>
+      <c r="B36" s="4">
+        <f>SUM(IBT!B36,Pension!B36,Retirement!B36)</f>
+        <v>24675625120.169998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>41243</v>
+      </c>
+      <c r="B37" s="4">
+        <f>SUM(IBT!B37,Pension!B37,Retirement!B37)</f>
+        <v>24802249901.279999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>41274</v>
+      </c>
+      <c r="B38" s="4">
+        <f>SUM(IBT!B38,Pension!B38,Retirement!B38)</f>
+        <v>24895725823.459999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>41305</v>
+      </c>
+      <c r="B39" s="4">
+        <f>SUM(IBT!B39,Pension!B39,Retirement!B39)</f>
+        <v>25170361391.66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>41333</v>
+      </c>
+      <c r="B40" s="4">
+        <f>SUM(IBT!B40,Pension!B40,Retirement!B40)</f>
+        <v>25279056931.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>41364</v>
+      </c>
+      <c r="B41" s="4">
+        <f>SUM(IBT!B41,Pension!B41,Retirement!B41)</f>
+        <v>25595461395.489998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>41394</v>
+      </c>
+      <c r="B42" s="4">
+        <f>SUM(IBT!B42,Pension!B42,Retirement!B42)</f>
+        <v>26172807411.43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>41425</v>
+      </c>
+      <c r="B43" s="4">
+        <f>SUM(IBT!B43,Pension!B43,Retirement!B43)</f>
+        <v>25673836920.309998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>41455</v>
+      </c>
+      <c r="B44" s="4">
+        <f>SUM(IBT!B44,Pension!B44,Retirement!B44)</f>
+        <v>25144097226.379997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>41486</v>
+      </c>
+      <c r="B45" s="4">
+        <f>SUM(IBT!B45,Pension!B45,Retirement!B45)</f>
+        <v>25436535483.029999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>41517</v>
+      </c>
+      <c r="B46" s="4">
+        <f>SUM(IBT!B46,Pension!B46,Retirement!B46)</f>
+        <v>25090551978.139999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>41547</v>
+      </c>
+      <c r="B47" s="4">
+        <f>SUM(IBT!B47,Pension!B47,Retirement!B47)</f>
+        <v>25528342822.260002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>41578</v>
+      </c>
+      <c r="B48" s="4">
+        <f>SUM(IBT!B48,Pension!B48,Retirement!B48)</f>
+        <v>26027210514.610001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>41608</v>
+      </c>
+      <c r="B49" s="4">
+        <f>SUM(IBT!B49,Pension!B49,Retirement!B49)</f>
+        <v>26003668184.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>41639</v>
+      </c>
+      <c r="B50" s="4">
+        <f>SUM(IBT!B50,Pension!B50,Retirement!B50)</f>
+        <v>26126136558.370003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>41670</v>
+      </c>
+      <c r="B51" s="4">
+        <f>SUM(IBT!B51,Pension!B51,Retirement!B51)</f>
+        <v>26107545286.209999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>41698</v>
+      </c>
+      <c r="B52" s="4">
+        <f>SUM(IBT!B52,Pension!B52,Retirement!B52)</f>
+        <v>26638014657</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <v>41729</v>
+      </c>
+      <c r="B53" s="4">
+        <f>SUM(IBT!B53,Pension!B53,Retirement!B53)</f>
+        <v>26769907188.32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
+        <v>41759</v>
+      </c>
+      <c r="B54" s="4">
+        <f>SUM(IBT!B54,Pension!B54,Retirement!B54)</f>
+        <v>26765961123.209999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>41790</v>
+      </c>
+      <c r="B55" s="4">
+        <f>SUM(IBT!B55,Pension!B55,Retirement!B55)</f>
+        <v>27191839755.379997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <v>41820</v>
+      </c>
+      <c r="B56" s="4">
+        <f>SUM(IBT!B56,Pension!B56,Retirement!B56)</f>
+        <v>27325539811.990002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>41851</v>
+      </c>
+      <c r="B57" s="4">
+        <f>SUM(IBT!B57,Pension!B57,Retirement!B57)</f>
+        <v>27156693166.089996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
+        <v>41882</v>
+      </c>
+      <c r="B58" s="4">
+        <f>SUM(IBT!B58,Pension!B58,Retirement!B58)</f>
+        <v>27744061638.859997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
+        <v>41912</v>
+      </c>
+      <c r="B59" s="4">
+        <f>SUM(IBT!B59,Pension!B59,Retirement!B59)</f>
+        <v>27150516717.209999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
+        <v>41943</v>
+      </c>
+      <c r="B60" s="4">
+        <f>SUM(IBT!B60,Pension!B60,Retirement!B60)</f>
+        <v>27371582530.760002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
+        <v>41973</v>
+      </c>
+      <c r="B61" s="4">
+        <f>SUM(IBT!B61,Pension!B61,Retirement!B61)</f>
+        <v>27755791534.099998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
+        <v>42004</v>
+      </c>
+      <c r="B62" s="4">
+        <f>SUM(IBT!B62,Pension!B62,Retirement!B62)</f>
+        <v>28782286672.540001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
+        <v>42035</v>
+      </c>
+      <c r="B63" s="4">
+        <f>SUM(IBT!B63,Pension!B63,Retirement!B63)</f>
+        <v>29377893373.27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
+        <v>42063</v>
+      </c>
+      <c r="B64" s="4">
+        <f>SUM(IBT!B64,Pension!B64,Retirement!B64)</f>
+        <v>29527582270.599998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
+        <v>42094</v>
+      </c>
+      <c r="B65" s="4">
+        <f>SUM(IBT!B65,Pension!B65,Retirement!B65)</f>
+        <v>29472066114.919998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
+        <v>42124</v>
+      </c>
+      <c r="B66" s="4">
+        <f>SUM(IBT!B66,Pension!B66,Retirement!B66)</f>
+        <v>29408499309.230003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
+        <v>42155</v>
+      </c>
+      <c r="B67" s="4">
+        <f>SUM(IBT!B67,Pension!B67,Retirement!B67)</f>
+        <v>29287873259.310001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="2">
+        <v>42185</v>
+      </c>
+      <c r="B68" s="4">
+        <f>SUM(IBT!B68,Pension!B68,Retirement!B68)</f>
+        <v>28649880311.460003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="2">
+        <v>42216</v>
+      </c>
+      <c r="B69" s="4">
+        <f>SUM(IBT!B69,Pension!B69,Retirement!B69)</f>
+        <v>28876049490.889999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="2">
+        <v>42247</v>
+      </c>
+      <c r="B70" s="4">
+        <f>SUM(IBT!B70,Pension!B70,Retirement!B70)</f>
+        <v>28013794466.529999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="2">
+        <v>42277</v>
+      </c>
+      <c r="B71" s="4">
+        <f>SUM(IBT!B71,Pension!B71,Retirement!B71)</f>
+        <v>27687481033.779999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="2">
+        <v>42308</v>
+      </c>
+      <c r="B72" s="4">
+        <f>SUM(IBT!B72,Pension!B72,Retirement!B72)</f>
+        <v>28326214032.700001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="2">
+        <v>42338</v>
+      </c>
+      <c r="B73" s="4">
+        <f>SUM(IBT!B73,Pension!B73,Retirement!B73)</f>
+        <v>28136428854.080002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="2">
+        <v>42369</v>
+      </c>
+      <c r="B74" s="4">
+        <f>SUM(IBT!B74,Pension!B74,Retirement!B74)</f>
+        <v>28846123319.360001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="2">
+        <v>42400</v>
+      </c>
+      <c r="B75" s="4">
+        <f>SUM(IBT!B75,Pension!B75,Retirement!B75)</f>
+        <v>28336242435.290001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="2">
+        <v>42429</v>
+      </c>
+      <c r="B76" s="4">
+        <f>SUM(IBT!B76,Pension!B76,Retirement!B76)</f>
+        <v>28455548735.700001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B77" s="4">
+        <f>SUM(IBT!B77,Pension!B77,Retirement!B77)</f>
+        <v>29356543183.02</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="2">
+        <v>42490</v>
+      </c>
+      <c r="B78" s="4">
+        <f>SUM(IBT!B78,Pension!B78,Retirement!B78)</f>
+        <v>29541899253.779999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="2">
+        <v>42521</v>
+      </c>
+      <c r="B79" s="4">
+        <f>SUM(IBT!B79,Pension!B79,Retirement!B79)</f>
+        <v>29511294102.970001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="2">
+        <v>42551</v>
+      </c>
+      <c r="B80" s="4">
+        <f>SUM(IBT!B80,Pension!B80,Retirement!B80)</f>
+        <v>29721707293.18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="2">
+        <v>42582</v>
+      </c>
+      <c r="B81" s="4">
+        <f>SUM(IBT!B81,Pension!B81,Retirement!B81)</f>
+        <v>30265017930.439999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="2">
+        <v>42613</v>
+      </c>
+      <c r="B82" s="4">
+        <f>SUM(IBT!B82,Pension!B82,Retirement!B82)</f>
+        <v>30212130836.659996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="2">
+        <v>42643</v>
+      </c>
+      <c r="B83" s="4">
+        <f>SUM(IBT!B83,Pension!B83,Retirement!B83)</f>
+        <v>31311065698.300003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="2">
+        <v>42674</v>
+      </c>
+      <c r="B84" s="4">
+        <f>SUM(IBT!B84,Pension!B84,Retirement!B84)</f>
+        <v>30735579110.59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="2">
+        <v>42704</v>
+      </c>
+      <c r="B85" s="4">
+        <f>SUM(IBT!B85,Pension!B85,Retirement!B85)</f>
+        <v>30294027553</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="2">
+        <v>42735</v>
+      </c>
+      <c r="B86" s="4">
+        <f>SUM(IBT!B86,Pension!B86,Retirement!B86)</f>
+        <v>31134438714.84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="2">
+        <v>42766</v>
+      </c>
+      <c r="B87" s="4">
+        <f>SUM(IBT!B87,Pension!B87,Retirement!B87)</f>
+        <v>31406508587.93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="2">
+        <v>42794</v>
+      </c>
+      <c r="B88" s="4">
+        <f>SUM(IBT!B88,Pension!B88,Retirement!B88)</f>
+        <v>31862808989.720001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="2">
+        <v>42825</v>
+      </c>
+      <c r="B89" s="4">
+        <f>SUM(IBT!B89,Pension!B89,Retirement!B89)</f>
+        <v>34237099341.939999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="2">
+        <v>42855</v>
+      </c>
+      <c r="B90" s="4">
+        <f>SUM(IBT!B90,Pension!B90,Retirement!B90)</f>
+        <v>34601102374.349998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="2">
+        <v>42886</v>
+      </c>
+      <c r="B91" s="4">
+        <f>SUM(IBT!B91,Pension!B91,Retirement!B91)</f>
+        <v>35025362965.57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="2">
+        <v>42916</v>
+      </c>
+      <c r="B92" s="4">
+        <f>SUM(IBT!B92,Pension!B92,Retirement!B92)</f>
+        <v>35106467417.43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="2">
+        <v>42947</v>
+      </c>
+      <c r="B93" s="4">
+        <f>SUM(IBT!B93,Pension!B93,Retirement!B93)</f>
+        <v>35405676882.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="2">
+        <v>42978</v>
+      </c>
+      <c r="B94" s="4">
+        <f>SUM(IBT!B94,Pension!B94,Retirement!B94)</f>
+        <v>35685401140.059998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="2">
+        <v>43008</v>
+      </c>
+      <c r="B95" s="4">
+        <f>SUM(IBT!B95,Pension!B95,Retirement!B95)</f>
+        <v>35874830645.559998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="2">
+        <v>43039</v>
+      </c>
+      <c r="B96" s="4">
+        <f>SUM(IBT!B96,Pension!B96,Retirement!B96)</f>
+        <v>36114807334.970001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="2">
+        <v>43069</v>
+      </c>
+      <c r="B97" s="4">
+        <f>SUM(IBT!B97,Pension!B97,Retirement!B97)</f>
+        <v>36495501947.440002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="2">
+        <v>43100</v>
+      </c>
+      <c r="B98" s="4">
+        <f>SUM(IBT!B98,Pension!B98,Retirement!B98)</f>
+        <v>41855947325.630005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B99" s="4">
+        <f>SUM(IBT!B99,Pension!B99,Retirement!B99)</f>
+        <v>42583608483.910004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="2">
+        <v>43159</v>
+      </c>
+      <c r="B100" s="4">
+        <f>SUM(IBT!B100,Pension!B100,Retirement!B100)</f>
+        <v>41211539283.339996</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="2">
+        <v>43190</v>
+      </c>
+      <c r="B101" s="4">
+        <f>SUM(IBT!B101,Pension!B101,Retirement!B101)</f>
+        <v>41345361923.699997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="2">
+        <v>43220</v>
+      </c>
+      <c r="B102" s="4">
+        <f>SUM(IBT!B102,Pension!B102,Retirement!B102)</f>
+        <v>41046653376.559998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="2">
+        <v>43251</v>
+      </c>
+      <c r="B103" s="4">
+        <f>SUM(IBT!B103,Pension!B103,Retirement!B103)</f>
+        <v>41313125652.080002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="2">
+        <v>43281</v>
+      </c>
+      <c r="B104" s="4">
+        <f>SUM(IBT!B104,Pension!B104,Retirement!B104)</f>
+        <v>41120926179.029999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="2">
+        <v>43312</v>
+      </c>
+      <c r="B105" s="4">
+        <f>SUM(IBT!B105,Pension!B105,Retirement!B105)</f>
+        <v>41384483579.770004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="2">
+        <v>43343</v>
+      </c>
+      <c r="B106" s="4">
+        <f>SUM(IBT!B106,Pension!B106,Retirement!B106)</f>
+        <v>41662699191.550003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="2">
+        <v>43373</v>
+      </c>
+      <c r="B107" s="4">
+        <f>SUM(IBT!B107,Pension!B107,Retirement!B107)</f>
+        <v>41186844593.330002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="2">
+        <v>43404</v>
+      </c>
+      <c r="B108" s="4">
+        <f>SUM(IBT!B108,Pension!B108,Retirement!B108)</f>
+        <v>39382932997.410004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="2">
+        <v>43434</v>
+      </c>
+      <c r="B109" s="4">
+        <f>SUM(IBT!B109,Pension!B109,Retirement!B109)</f>
+        <v>39775062674.709999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="2">
+        <v>43465</v>
+      </c>
+      <c r="B110" s="4">
+        <f>SUM(IBT!B110,Pension!B110,Retirement!B110)</f>
+        <v>39522884974.100006</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="2">
+        <v>43496</v>
+      </c>
+      <c r="B111" s="4">
+        <f>SUM(IBT!B111,Pension!B111,Retirement!B111)</f>
+        <v>40669954095.649994</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="2">
+        <v>43524</v>
+      </c>
+      <c r="B112" s="4">
+        <f>SUM(IBT!B112,Pension!B112,Retirement!B112)</f>
+        <v>40797714345.529999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="2">
+        <v>43555</v>
+      </c>
+      <c r="B113" s="4">
+        <f>SUM(IBT!B113,Pension!B113,Retirement!B113)</f>
+        <v>41816004324.669998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B114" s="4">
+        <f>SUM(IBT!B114,Pension!B114,Retirement!B114)</f>
+        <v>42743010048.029999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="2">
+        <v>43616</v>
+      </c>
+      <c r="B115" s="4">
+        <f>SUM(IBT!B115,Pension!B115,Retirement!B115)</f>
+        <v>43049509347.520004</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="2">
+        <v>43646</v>
+      </c>
+      <c r="B116" s="4">
+        <f>SUM(IBT!B116,Pension!B116,Retirement!B116)</f>
+        <v>44201801916.779999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="2">
+        <v>43677</v>
+      </c>
+      <c r="B117" s="4">
+        <f>SUM(IBT!B117,Pension!B117,Retirement!B117)</f>
+        <v>44289184114.949997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="2">
+        <v>43708</v>
+      </c>
+      <c r="B118" s="4">
+        <f>SUM(IBT!B118,Pension!B118,Retirement!B118)</f>
+        <v>46120218348.729996</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="2">
+        <v>43738</v>
+      </c>
+      <c r="B119" s="4">
+        <f>SUM(IBT!B119,Pension!B119,Retirement!B119)</f>
+        <v>46949500920.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="2">
+        <v>43769</v>
+      </c>
+      <c r="B120" s="4">
+        <f>SUM(IBT!B120,Pension!B120,Retirement!B120)</f>
+        <v>46865616845.860001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="2">
+        <v>43799</v>
+      </c>
+      <c r="B121" s="4">
+        <f>SUM(IBT!B121,Pension!B121,Retirement!B121)</f>
+        <v>47123526214.259995</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="2">
+        <v>43830</v>
+      </c>
+      <c r="B122" s="4">
+        <f>SUM(IBT!B122,Pension!B122,Retirement!B122)</f>
+        <v>46141543427.790001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="2">
+        <v>43861</v>
+      </c>
+      <c r="B123" s="4">
+        <f>SUM(IBT!B123,Pension!B123,Retirement!B123)</f>
+        <v>47197571777.949997</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="2">
+        <v>43890</v>
+      </c>
+      <c r="B124" s="4">
+        <f>SUM(IBT!B124,Pension!B124,Retirement!B124)</f>
+        <v>47123736418.860001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B125" s="4">
+        <f>SUM(IBT!B125,Pension!B125,Retirement!B125)</f>
+        <v>45203938859.300003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B126" s="4">
+        <f>SUM(IBT!B126,Pension!B126,Retirement!B126)</f>
+        <v>47063924664.940002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="2">
+        <v>43982</v>
+      </c>
+      <c r="B127" s="4">
+        <f>SUM(IBT!B127,Pension!B127,Retirement!B127)</f>
+        <v>47081053140.339996</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B128" s="4">
+        <f>SUM(IBT!B128,Pension!B128,Retirement!B128)</f>
+        <v>47426479912.610001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="2">
+        <v>44043</v>
+      </c>
+      <c r="B129" s="4">
+        <f>SUM(IBT!B129,Pension!B129,Retirement!B129)</f>
+        <v>49195581002.360001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B130" s="4">
+        <f>SUM(IBT!B130,Pension!B130,Retirement!B130)</f>
+        <v>48906000373.669998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B131" s="4">
+        <f>SUM(IBT!B131,Pension!B131,Retirement!B131)</f>
+        <v>49328610123.339996</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="2">
+        <v>44135</v>
+      </c>
+      <c r="B132" s="4">
+        <f>SUM(IBT!B132,Pension!B132,Retirement!B132)</f>
+        <v>48025973012.379997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="2">
+        <v>44165</v>
+      </c>
+      <c r="B133" s="4">
+        <f>SUM(IBT!B133,Pension!B133,Retirement!B133)</f>
+        <v>50439922757.960007</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B134" s="4">
+        <f>SUM(IBT!B134,Pension!B134,Retirement!B134)</f>
+        <v>52788406154.489998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="2">
+        <v>44227</v>
+      </c>
+      <c r="B135" s="4">
+        <f>SUM(IBT!B135,Pension!B135,Retirement!B135)</f>
+        <v>51587924289.860001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="2">
+        <v>44255</v>
+      </c>
+      <c r="B136" s="4">
+        <f>SUM(IBT!B136,Pension!B136,Retirement!B136)</f>
+        <v>50499267741.220001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B137" s="4">
+        <f>SUM(IBT!B137,Pension!B137,Retirement!B137)</f>
+        <v>50392639291.639999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="2">
+        <v>44316</v>
+      </c>
+      <c r="B138" s="4">
+        <f>SUM(IBT!B138,Pension!B138,Retirement!B138)</f>
+        <v>51700906918.139999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" s="2">
+        <v>44347</v>
+      </c>
+      <c r="B139" s="4">
+        <f>SUM(IBT!B139,Pension!B139,Retirement!B139)</f>
+        <v>52378479915.339996</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B140" s="4">
+        <f>SUM(IBT!B140,Pension!B140,Retirement!B140)</f>
+        <v>53479086658.270004</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" s="2">
+        <v>44408</v>
+      </c>
+      <c r="B141" s="4">
+        <f>SUM(IBT!B141,Pension!B141,Retirement!B141)</f>
+        <v>54428674790.350006</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B142" s="4">
+        <f>SUM(IBT!B142,Pension!B142,Retirement!B142)</f>
+        <v>54870263825.589996</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B143" s="4">
+        <f>SUM(IBT!B143,Pension!B143,Retirement!B143)</f>
+        <v>52900976752.919998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" s="2">
+        <v>44500</v>
+      </c>
+      <c r="B144" s="4">
+        <f>SUM(IBT!B144,Pension!B144,Retirement!B144)</f>
+        <v>54300695591.470001</v>
+      </c>
+      <c r="C144" s="4"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" s="2">
+        <v>44530</v>
+      </c>
+      <c r="B145" s="4">
+        <f>SUM(IBT!B145,Pension!B145,Retirement!B145)</f>
+        <v>55089285603.900002</v>
+      </c>
+      <c r="C145" s="4"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B146" s="4">
+        <f>SUM(IBT!B146,Pension!B146,Retirement!B146)</f>
+        <v>55524799409.729996</v>
+      </c>
+      <c r="C146" s="4"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C147" s="4"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B150" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
